--- a/March'21/01.03.2021/Daily Sales Info..xlsx
+++ b/March'21/01.03.2021/Daily Sales Info..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="50">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Date: 01.03.2021</t>
+  </si>
+  <si>
+    <t>Date: 02.03.2021</t>
   </si>
 </sst>
 </file>
@@ -13320,9 +13323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14132,7 +14135,7 @@
         <v>-35.644500000000001</v>
       </c>
       <c r="U17">
-        <v>525</v>
+        <v>-575</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75">
@@ -15126,35 +15129,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'9'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'9'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'9'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'9'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'9'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'9'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'9'!L29</f>
@@ -16304,35 +16307,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -16676,35 +16679,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'10'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'10'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'10'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'10'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'10'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'10'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'10'!L29</f>
@@ -17854,35 +17857,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -18226,35 +18229,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'11'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'11'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'11'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'11'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
@@ -19404,35 +19407,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -19776,35 +19779,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'12'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'12'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'12'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'12'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
@@ -20954,35 +20957,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -21326,35 +21329,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'13'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'13'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'13'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'13'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
@@ -22504,35 +22507,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -22876,35 +22879,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'14'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'14'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'14'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'14'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
@@ -24054,35 +24057,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -24426,35 +24429,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'15'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'15'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'15'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'15'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
@@ -25604,35 +25607,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -25976,35 +25979,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'16'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'16'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'16'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'16'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
@@ -27154,35 +27157,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -27526,35 +27529,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'17'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'17'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'17'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
@@ -28704,35 +28707,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -29076,35 +29079,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'18'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'18'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'18'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
@@ -30254,35 +30257,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -30531,9 +30534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30596,7 +30599,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75">
       <c r="A3" s="64" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="65"/>
       <c r="C3" s="66"/>
@@ -30675,7 +30678,9 @@
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>474480</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -30765,40 +30770,56 @@
       <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21">
+        <v>8017</v>
+      </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="F7" s="22">
+        <v>40</v>
+      </c>
+      <c r="G7" s="22">
+        <v>10</v>
+      </c>
+      <c r="H7" s="22">
+        <v>40</v>
+      </c>
+      <c r="I7" s="23">
+        <v>37</v>
+      </c>
+      <c r="J7" s="23">
+        <v>9</v>
+      </c>
+      <c r="K7" s="23">
+        <v>5</v>
+      </c>
       <c r="L7" s="23"/>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>0</v>
+        <v>8867</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>0</v>
+        <v>18563</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>0</v>
+        <v>243.8425</v>
       </c>
       <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="26">
+        <v>79</v>
+      </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>0</v>
+        <v>18240.157500000001</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>0</v>
+        <v>84.236499999999992</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>0</v>
+        <v>5.2364999999999924</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75">
@@ -30811,40 +30832,46 @@
       <c r="C8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="29">
+        <v>3702</v>
+      </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="20">
+        <v>40</v>
+      </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20">
         <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
-        <v>0</v>
+        <v>3702</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>0</v>
+        <v>11342</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
-        <v>0</v>
+        <v>101.80500000000001</v>
       </c>
       <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="Q8" s="26">
+        <v>75</v>
+      </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>0</v>
+        <v>11165.195</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
-        <v>0</v>
+        <v>35.168999999999997</v>
       </c>
       <c r="T8" s="27">
         <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
-        <v>0</v>
+        <v>-39.831000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75">
@@ -30857,40 +30884,46 @@
       <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="29">
+        <v>9344</v>
+      </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="20">
+        <v>41</v>
+      </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9344</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17175</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>256.95999999999998</v>
       </c>
       <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="Q9" s="26">
+        <v>88</v>
+      </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16830.04</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>88.768000000000001</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.76800000000000068</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75">
@@ -30903,40 +30936,46 @@
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="29">
+        <v>4834</v>
+      </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="20">
+        <v>2</v>
+      </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4834</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5216</v>
       </c>
       <c r="O10" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>132.935</v>
       </c>
       <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="26">
+        <v>33</v>
+      </c>
       <c r="R10" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5050.0649999999996</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45.923000000000002</v>
       </c>
       <c r="T10" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12.923000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75">
@@ -30949,40 +30988,50 @@
       <c r="C11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="D11" s="29">
+        <v>3946</v>
+      </c>
+      <c r="E11" s="30">
+        <v>50</v>
+      </c>
+      <c r="F11" s="30">
+        <v>50</v>
+      </c>
       <c r="G11" s="32"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="30">
+        <v>10</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5536</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5536</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>152.24</v>
       </c>
       <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="Q11" s="26">
+        <v>30</v>
+      </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5353.76</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52.591999999999999</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>22.591999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75">
@@ -30995,40 +31044,54 @@
       <c r="C12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="D12" s="29">
+        <v>5258</v>
+      </c>
+      <c r="E12" s="30">
+        <v>50</v>
+      </c>
+      <c r="F12" s="30">
+        <v>50</v>
+      </c>
       <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="30">
+        <v>50</v>
+      </c>
+      <c r="I12" s="20">
+        <v>15</v>
+      </c>
       <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20">
+        <v>10</v>
+      </c>
       <c r="L12" s="20"/>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7208</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11893</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>198.22</v>
       </c>
       <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
+      <c r="Q12" s="26">
+        <v>34</v>
+      </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11660.779999999999</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>68.475999999999999</v>
       </c>
       <c r="T12" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34.475999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75">
@@ -31041,7 +31104,9 @@
       <c r="C13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="29">
+        <v>3503</v>
+      </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
@@ -31052,29 +31117,31 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3503</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3503</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>96.332499999999996</v>
       </c>
       <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="Q13" s="26">
+        <v>30</v>
+      </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3376.6675</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.278500000000001</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.2785000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75">
@@ -31087,40 +31154,46 @@
       <c r="C14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="29">
+        <v>6076</v>
+      </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20">
+        <v>10</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6076</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7986</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>167.09</v>
       </c>
       <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="Q14" s="26">
+        <v>78</v>
+      </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7740.91</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>57.722000000000001</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-20.277999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75">
@@ -31133,40 +31206,48 @@
       <c r="C15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="29">
+        <v>8860</v>
+      </c>
+      <c r="E15" s="30">
+        <v>30</v>
+      </c>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="20">
+        <v>3</v>
+      </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9460</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10033</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>260.14999999999998</v>
       </c>
       <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
+      <c r="Q15" s="26">
+        <v>80</v>
+      </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9692.85</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>89.87</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.8700000000000045</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75">
@@ -31179,40 +31260,52 @@
       <c r="C16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="29">
+        <v>5242</v>
+      </c>
+      <c r="E16" s="30">
+        <v>50</v>
+      </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="20"/>
+      <c r="H16" s="30">
+        <v>100</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1</v>
+      </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20">
+        <v>2</v>
+      </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7142</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7697</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>196.405</v>
       </c>
       <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="Q16" s="26">
+        <v>60</v>
+      </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7440.5950000000003</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>67.849000000000004</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.8490000000000038</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75">
@@ -31225,40 +31318,52 @@
       <c r="C17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="29">
+        <v>4419</v>
+      </c>
       <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="30">
+        <v>30</v>
+      </c>
       <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="30">
+        <v>20</v>
+      </c>
+      <c r="I17" s="20">
+        <v>2</v>
+      </c>
       <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="20">
+        <v>3</v>
+      </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4899</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5827</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>134.7225</v>
       </c>
       <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="Q17" s="26">
+        <v>45</v>
+      </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5647.2775000000001</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>46.540500000000002</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5405000000000015</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75">
@@ -31271,40 +31376,52 @@
       <c r="C18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="D18" s="29">
+        <v>3705</v>
+      </c>
+      <c r="E18" s="30">
+        <v>30</v>
+      </c>
+      <c r="F18" s="30">
+        <v>60</v>
+      </c>
       <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="20"/>
+      <c r="H18" s="30">
+        <v>20</v>
+      </c>
+      <c r="I18" s="20">
+        <v>5</v>
+      </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5085</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6040</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>139.83750000000001</v>
       </c>
       <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="26">
+        <v>100</v>
+      </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5800.1625000000004</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>48.307499999999997</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-51.692500000000003</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75">
@@ -31317,7 +31434,9 @@
       <c r="C19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="29">
+        <v>9149</v>
+      </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -31328,29 +31447,31 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9149</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9149</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>251.5975</v>
       </c>
       <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="Q19" s="26">
+        <v>157</v>
+      </c>
       <c r="R19" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8740.4025000000001</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>86.915499999999994</v>
       </c>
       <c r="T19" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-70.084500000000006</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75">
@@ -31363,40 +31484,50 @@
       <c r="C20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="29">
+        <v>3703</v>
+      </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="I20" s="20">
+        <v>58</v>
+      </c>
+      <c r="J20" s="20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="20">
+        <v>15</v>
+      </c>
       <c r="L20" s="20"/>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3703</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18084</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>101.8325</v>
       </c>
       <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+      <c r="Q20" s="26">
+        <v>100</v>
+      </c>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17882.1675</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>35.1785</v>
       </c>
       <c r="T20" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-64.8215</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75">
@@ -31409,40 +31540,52 @@
       <c r="C21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="D21" s="29">
+        <v>3316</v>
+      </c>
+      <c r="E21" s="30">
+        <v>50</v>
+      </c>
+      <c r="F21" s="30">
+        <v>50</v>
+      </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="30">
+        <v>20</v>
+      </c>
+      <c r="I21" s="20">
+        <v>5</v>
+      </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5951</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>137.39000000000001</v>
       </c>
       <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
+      <c r="Q21" s="26">
+        <v>33</v>
+      </c>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5780.61</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>47.461999999999996</v>
       </c>
       <c r="T21" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14.461999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75">
@@ -31455,40 +31598,48 @@
       <c r="C22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="29">
+        <v>7000</v>
+      </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="20"/>
+      <c r="H22" s="30">
+        <v>100</v>
+      </c>
+      <c r="I22" s="20">
+        <v>30</v>
+      </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13630</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>217.25</v>
       </c>
       <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="Q22" s="26">
+        <v>87</v>
+      </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13325.75</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>75.05</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-11.950000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75">
@@ -31501,7 +31652,9 @@
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="35">
+        <v>5527</v>
+      </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -31512,29 +31665,31 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5527</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5527</v>
       </c>
       <c r="O23" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.99250000000001</v>
       </c>
       <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
+      <c r="Q23" s="26">
+        <v>50</v>
+      </c>
       <c r="R23" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5325.0074999999997</v>
       </c>
       <c r="S23" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52.506499999999996</v>
       </c>
       <c r="T23" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.5064999999999955</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75">
@@ -31547,40 +31702,50 @@
       <c r="C24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="29">
+        <v>10588</v>
+      </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="30">
+        <v>100</v>
+      </c>
+      <c r="I24" s="20">
+        <v>10</v>
+      </c>
       <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20">
+        <v>5</v>
+      </c>
       <c r="L24" s="20"/>
       <c r="M24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11488</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14308</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>315.92</v>
       </c>
       <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
+      <c r="Q24" s="26">
+        <v>97</v>
+      </c>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13895.08</v>
       </c>
       <c r="S24" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>109.136</v>
       </c>
       <c r="T24" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12.135999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75">
@@ -31593,7 +31758,9 @@
       <c r="C25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="29">
+        <v>3396</v>
+      </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -31604,29 +31771,31 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3396</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3396</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>93.39</v>
       </c>
       <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="26">
+        <v>30</v>
+      </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3272.61</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>32.262</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.2620000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75">
@@ -31639,40 +31808,48 @@
       <c r="C26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="29">
+        <v>2365</v>
+      </c>
       <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
+      <c r="F26" s="30">
+        <v>10</v>
+      </c>
       <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="H26" s="30">
+        <v>70</v>
+      </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3095</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3095</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>85.112499999999997</v>
       </c>
       <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
+      <c r="Q26" s="26">
+        <v>110</v>
+      </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2899.8874999999998</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29.4025</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-80.597499999999997</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="19.5" thickBot="1">
@@ -31685,40 +31862,46 @@
       <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37">
+        <v>5550</v>
+      </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>5</v>
+      </c>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5550</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6505</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>152.625</v>
       </c>
       <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="41">
+        <v>100</v>
+      </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6252.375</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52.725000000000001</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-47.274999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1">
@@ -31729,35 +31912,35 @@
       <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>0</v>
+        <v>117500</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -31765,15 +31948,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>130460</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>190456</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3587.6499999999996</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -31781,19 +31964,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1496</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>185372.34999999998</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1239.3699999999997</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-256.63000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1">
@@ -31804,35 +31987,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -32176,35 +32359,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'19'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'19'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'19'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
@@ -33354,35 +33537,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -33726,35 +33909,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'20'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'20'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'20'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
@@ -34904,35 +35087,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -35276,35 +35459,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'21'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'21'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'21'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
@@ -36454,35 +36637,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -36826,35 +37009,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'22'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'22'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'22'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
@@ -38004,35 +38187,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -38376,35 +38559,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'23'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'23'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'23'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
@@ -39554,35 +39737,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -39926,35 +40109,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'24'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'24'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'24'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
@@ -41104,35 +41287,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -41476,35 +41659,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'25'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'25'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'25'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
@@ -42654,35 +42837,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -43026,35 +43209,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'26'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'26'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'26'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
@@ -44204,35 +44387,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -44576,35 +44759,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'27'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'27'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'27'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
@@ -45754,35 +45937,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -46126,35 +46309,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'28'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'28'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
@@ -47304,35 +47487,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -47676,35 +47859,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'2'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'2'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'2'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'2'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'2'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'2'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'2'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'2'!L29</f>
@@ -48854,35 +49037,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -49226,35 +49409,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'29'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
@@ -50404,35 +50587,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -50776,35 +50959,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'30'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
@@ -51954,35 +52137,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -52374,7 +52557,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>'1'!D5+'2'!D5+'3'!D5+'4'!D5+'5'!D5+'6'!D5+'7'!D5+'8'!D5+'9'!D5+'10'!D5+'11'!D5+'12'!D5+'13'!D5+'14'!D5+'15'!D5+'16'!D5+'17'!D5+'18'!D5+'19'!D5+'20'!D5+'21'!D5+'22'!D5+'23'!D5+'24'!D5+'25'!D5+'26'!D5+'27'!D5+'28'!D5+'29'!D5+'30'!D5+'31'!D5</f>
-        <v>0</v>
+        <v>474480</v>
       </c>
       <c r="E5" s="1">
         <f>'1'!E5+'2'!E5+'3'!E5+'4'!E5+'5'!E5+'6'!E5+'7'!E5+'8'!E5+'9'!E5+'10'!E5+'11'!E5+'12'!E5+'13'!E5+'14'!E5+'15'!E5+'16'!E5+'17'!E5+'18'!E5+'19'!E5+'20'!E5+'21'!E5+'22'!E5+'23'!E5+'24'!E5+'25'!E5+'26'!E5+'27'!E5+'28'!E5+'29'!E5+'30'!E5+'31'!E5</f>
@@ -52491,7 +52674,7 @@
       </c>
       <c r="D7" s="21">
         <f>'1'!D7+'2'!D7+'3'!D7+'4'!D7+'5'!D7+'6'!D7+'7'!D7+'8'!D7+'9'!D7+'10'!D7+'11'!D7+'12'!D7+'13'!D7+'14'!D7+'15'!D7+'16'!D7+'17'!D7+'18'!D7+'19'!D7+'20'!D7+'21'!D7+'22'!D7+'23'!D7+'24'!D7+'25'!D7+'26'!D7+'27'!D7+'28'!D7+'29'!D7+'30'!D7+'31'!D7</f>
-        <v>3907</v>
+        <v>11924</v>
       </c>
       <c r="E7" s="21">
         <f>'1'!E7+'2'!E7+'3'!E7+'4'!E7+'5'!E7+'6'!E7+'7'!E7+'8'!E7+'9'!E7+'10'!E7+'11'!E7+'12'!E7+'13'!E7+'14'!E7+'15'!E7+'16'!E7+'17'!E7+'18'!E7+'19'!E7+'20'!E7+'21'!E7+'22'!E7+'23'!E7+'24'!E7+'25'!E7+'26'!E7+'27'!E7+'28'!E7+'29'!E7+'30'!E7+'31'!E7</f>
@@ -52499,27 +52682,27 @@
       </c>
       <c r="F7" s="21">
         <f>'1'!F7+'2'!F7+'3'!F7+'4'!F7+'5'!F7+'6'!F7+'7'!F7+'8'!F7+'9'!F7+'10'!F7+'11'!F7+'12'!F7+'13'!F7+'14'!F7+'15'!F7+'16'!F7+'17'!F7+'18'!F7+'19'!F7+'20'!F7+'21'!F7+'22'!F7+'23'!F7+'24'!F7+'25'!F7+'26'!F7+'27'!F7+'28'!F7+'29'!F7+'30'!F7+'31'!F7</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G7" s="21">
         <f>'1'!G7+'2'!G7+'3'!G7+'4'!G7+'5'!G7+'6'!G7+'7'!G7+'8'!G7+'9'!G7+'10'!G7+'11'!G7+'12'!G7+'13'!G7+'14'!G7+'15'!G7+'16'!G7+'17'!G7+'18'!G7+'19'!G7+'20'!G7+'21'!G7+'22'!G7+'23'!G7+'24'!G7+'25'!G7+'26'!G7+'27'!G7+'28'!G7+'29'!G7+'30'!G7+'31'!G7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" s="21">
         <f>'1'!H7+'2'!H7+'3'!H7+'4'!H7+'5'!H7+'6'!H7+'7'!H7+'8'!H7+'9'!H7+'10'!H7+'11'!H7+'12'!H7+'13'!H7+'14'!H7+'15'!H7+'16'!H7+'17'!H7+'18'!H7+'19'!H7+'20'!H7+'21'!H7+'22'!H7+'23'!H7+'24'!H7+'25'!H7+'26'!H7+'27'!H7+'28'!H7+'29'!H7+'30'!H7+'31'!H7</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I7" s="21">
         <f>'1'!I7+'2'!I7+'3'!I7+'4'!I7+'5'!I7+'6'!I7+'7'!I7+'8'!I7+'9'!I7+'10'!I7+'11'!I7+'12'!I7+'13'!I7+'14'!I7+'15'!I7+'16'!I7+'17'!I7+'18'!I7+'19'!I7+'20'!I7+'21'!I7+'22'!I7+'23'!I7+'24'!I7+'25'!I7+'26'!I7+'27'!I7+'28'!I7+'29'!I7+'30'!I7+'31'!I7</f>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J7" s="21">
         <f>'1'!J7+'2'!J7+'3'!J7+'4'!J7+'5'!J7+'6'!J7+'7'!J7+'8'!J7+'9'!J7+'10'!J7+'11'!J7+'12'!J7+'13'!J7+'14'!J7+'15'!J7+'16'!J7+'17'!J7+'18'!J7+'19'!J7+'20'!J7+'21'!J7+'22'!J7+'23'!J7+'24'!J7+'25'!J7+'26'!J7+'27'!J7+'28'!J7+'29'!J7+'30'!J7+'31'!J7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K7" s="21">
         <f>'1'!K7+'2'!K7+'3'!K7+'4'!K7+'5'!K7+'6'!K7+'7'!K7+'8'!K7+'9'!K7+'10'!K7+'11'!K7+'12'!K7+'13'!K7+'14'!K7+'15'!K7+'16'!K7+'17'!K7+'18'!K7+'19'!K7+'20'!K7+'21'!K7+'22'!K7+'23'!K7+'24'!K7+'25'!K7+'26'!K7+'27'!K7+'28'!K7+'29'!K7+'30'!K7+'31'!K7</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7" s="21">
         <f>'1'!L7+'2'!L7+'3'!L7+'4'!L7+'5'!L7+'6'!L7+'7'!L7+'8'!L7+'9'!L7+'10'!L7+'11'!L7+'12'!L7+'13'!L7+'14'!L7+'15'!L7+'16'!L7+'17'!L7+'18'!L7+'19'!L7+'20'!L7+'21'!L7+'22'!L7+'23'!L7+'24'!L7+'25'!L7+'26'!L7+'27'!L7+'28'!L7+'29'!L7+'30'!L7+'31'!L7</f>
@@ -52527,32 +52710,32 @@
       </c>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>3907</v>
+        <v>12774</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>6963</v>
+        <v>25526</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>107.4425</v>
+        <v>351.28500000000003</v>
       </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="26">
         <f>'1'!Q7+'2'!Q7+'3'!Q7+'4'!Q7+'5'!Q7+'6'!Q7+'7'!Q7+'8'!Q7+'9'!Q7+'10'!Q7+'11'!Q7+'12'!Q7+'13'!Q7+'14'!Q7+'15'!Q7+'16'!Q7+'17'!Q7+'18'!Q7+'19'!Q7+'20'!Q7+'21'!Q7+'22'!Q7+'23'!Q7+'24'!Q7+'25'!Q7+'26'!Q7+'27'!Q7+'28'!Q7+'29'!Q7+'30'!Q7+'31'!Q7</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>6855.5574999999999</v>
+        <v>25095.715</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>37.116500000000002</v>
+        <v>121.35299999999999</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>37.116500000000002</v>
+        <v>42.352999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75">
@@ -52567,7 +52750,7 @@
       </c>
       <c r="D8" s="21">
         <f>'1'!D8+'2'!D8+'3'!D8+'4'!D8+'5'!D8+'6'!D8+'7'!D8+'8'!D8+'9'!D8+'10'!D8+'11'!D8+'12'!D8+'13'!D8+'14'!D8+'15'!D8+'16'!D8+'17'!D8+'18'!D8+'19'!D8+'20'!D8+'21'!D8+'22'!D8+'23'!D8+'24'!D8+'25'!D8+'26'!D8+'27'!D8+'28'!D8+'29'!D8+'30'!D8+'31'!D8</f>
-        <v>1064</v>
+        <v>4766</v>
       </c>
       <c r="E8" s="21">
         <f>'1'!E8+'2'!E8+'3'!E8+'4'!E8+'5'!E8+'6'!E8+'7'!E8+'8'!E8+'9'!E8+'10'!E8+'11'!E8+'12'!E8+'13'!E8+'14'!E8+'15'!E8+'16'!E8+'17'!E8+'18'!E8+'19'!E8+'20'!E8+'21'!E8+'22'!E8+'23'!E8+'24'!E8+'25'!E8+'26'!E8+'27'!E8+'28'!E8+'29'!E8+'30'!E8+'31'!E8</f>
@@ -52587,7 +52770,7 @@
       </c>
       <c r="I8" s="21">
         <f>'1'!I8+'2'!I8+'3'!I8+'4'!I8+'5'!I8+'6'!I8+'7'!I8+'8'!I8+'9'!I8+'10'!I8+'11'!I8+'12'!I8+'13'!I8+'14'!I8+'15'!I8+'16'!I8+'17'!I8+'18'!I8+'19'!I8+'20'!I8+'21'!I8+'22'!I8+'23'!I8+'24'!I8+'25'!I8+'26'!I8+'27'!I8+'28'!I8+'29'!I8+'30'!I8+'31'!I8</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J8" s="21">
         <f>'1'!J8+'2'!J8+'3'!J8+'4'!J8+'5'!J8+'6'!J8+'7'!J8+'8'!J8+'9'!J8+'10'!J8+'11'!J8+'12'!J8+'13'!J8+'14'!J8+'15'!J8+'16'!J8+'17'!J8+'18'!J8+'19'!J8+'20'!J8+'21'!J8+'22'!J8+'23'!J8+'24'!J8+'25'!J8+'26'!J8+'27'!J8+'28'!J8+'29'!J8+'30'!J8+'31'!J8</f>
@@ -52603,32 +52786,32 @@
       </c>
       <c r="M8" s="20">
         <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
-        <v>2864</v>
+        <v>6566</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>3819</v>
+        <v>15161</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
-        <v>78.760000000000005</v>
+        <v>180.565</v>
       </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26">
         <f>'1'!Q8+'2'!Q8+'3'!Q8+'4'!Q8+'5'!Q8+'6'!Q8+'7'!Q8+'8'!Q8+'9'!Q8+'10'!Q8+'11'!Q8+'12'!Q8+'13'!Q8+'14'!Q8+'15'!Q8+'16'!Q8+'17'!Q8+'18'!Q8+'19'!Q8+'20'!Q8+'21'!Q8+'22'!Q8+'23'!Q8+'24'!Q8+'25'!Q8+'26'!Q8+'27'!Q8+'28'!Q8+'29'!Q8+'30'!Q8+'31'!Q8</f>
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>3730.24</v>
+        <v>14895.435000000001</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
-        <v>27.207999999999998</v>
+        <v>62.376999999999995</v>
       </c>
       <c r="T8" s="27">
         <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
-        <v>17.207999999999998</v>
+        <v>-22.623000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75">
@@ -52643,7 +52826,7 @@
       </c>
       <c r="D9" s="21">
         <f>'1'!D9+'2'!D9+'3'!D9+'4'!D9+'5'!D9+'6'!D9+'7'!D9+'8'!D9+'9'!D9+'10'!D9+'11'!D9+'12'!D9+'13'!D9+'14'!D9+'15'!D9+'16'!D9+'17'!D9+'18'!D9+'19'!D9+'20'!D9+'21'!D9+'22'!D9+'23'!D9+'24'!D9+'25'!D9+'26'!D9+'27'!D9+'28'!D9+'29'!D9+'30'!D9+'31'!D9</f>
-        <v>6555</v>
+        <v>15899</v>
       </c>
       <c r="E9" s="21">
         <f>'1'!E9+'2'!E9+'3'!E9+'4'!E9+'5'!E9+'6'!E9+'7'!E9+'8'!E9+'9'!E9+'10'!E9+'11'!E9+'12'!E9+'13'!E9+'14'!E9+'15'!E9+'16'!E9+'17'!E9+'18'!E9+'19'!E9+'20'!E9+'21'!E9+'22'!E9+'23'!E9+'24'!E9+'25'!E9+'26'!E9+'27'!E9+'28'!E9+'29'!E9+'30'!E9+'31'!E9</f>
@@ -52663,7 +52846,7 @@
       </c>
       <c r="I9" s="21">
         <f>'1'!I9+'2'!I9+'3'!I9+'4'!I9+'5'!I9+'6'!I9+'7'!I9+'8'!I9+'9'!I9+'10'!I9+'11'!I9+'12'!I9+'13'!I9+'14'!I9+'15'!I9+'16'!I9+'17'!I9+'18'!I9+'19'!I9+'20'!I9+'21'!I9+'22'!I9+'23'!I9+'24'!I9+'25'!I9+'26'!I9+'27'!I9+'28'!I9+'29'!I9+'30'!I9+'31'!I9</f>
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="J9" s="21">
         <f>'1'!J9+'2'!J9+'3'!J9+'4'!J9+'5'!J9+'6'!J9+'7'!J9+'8'!J9+'9'!J9+'10'!J9+'11'!J9+'12'!J9+'13'!J9+'14'!J9+'15'!J9+'16'!J9+'17'!J9+'18'!J9+'19'!J9+'20'!J9+'21'!J9+'22'!J9+'23'!J9+'24'!J9+'25'!J9+'26'!J9+'27'!J9+'28'!J9+'29'!J9+'30'!J9+'31'!J9</f>
@@ -52679,32 +52862,32 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>7695</v>
+        <v>17039</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>8841</v>
+        <v>26016</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>211.61250000000001</v>
+        <v>468.57249999999999</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26">
         <f>'1'!Q9+'2'!Q9+'3'!Q9+'4'!Q9+'5'!Q9+'6'!Q9+'7'!Q9+'8'!Q9+'9'!Q9+'10'!Q9+'11'!Q9+'12'!Q9+'13'!Q9+'14'!Q9+'15'!Q9+'16'!Q9+'17'!Q9+'18'!Q9+'19'!Q9+'20'!Q9+'21'!Q9+'22'!Q9+'23'!Q9+'24'!Q9+'25'!Q9+'26'!Q9+'27'!Q9+'28'!Q9+'29'!Q9+'30'!Q9+'31'!Q9</f>
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>8559.3875000000007</v>
+        <v>25389.427500000002</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>73.102499999999992</v>
+        <v>161.87049999999999</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="5"/>
-        <v>3.102499999999992</v>
+        <v>3.8704999999999927</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75">
@@ -52719,7 +52902,7 @@
       </c>
       <c r="D10" s="21">
         <f>'1'!D10+'2'!D10+'3'!D10+'4'!D10+'5'!D10+'6'!D10+'7'!D10+'8'!D10+'9'!D10+'10'!D10+'11'!D10+'12'!D10+'13'!D10+'14'!D10+'15'!D10+'16'!D10+'17'!D10+'18'!D10+'19'!D10+'20'!D10+'21'!D10+'22'!D10+'23'!D10+'24'!D10+'25'!D10+'26'!D10+'27'!D10+'28'!D10+'29'!D10+'30'!D10+'31'!D10</f>
-        <v>2173</v>
+        <v>7007</v>
       </c>
       <c r="E10" s="21">
         <f>'1'!E10+'2'!E10+'3'!E10+'4'!E10+'5'!E10+'6'!E10+'7'!E10+'8'!E10+'9'!E10+'10'!E10+'11'!E10+'12'!E10+'13'!E10+'14'!E10+'15'!E10+'16'!E10+'17'!E10+'18'!E10+'19'!E10+'20'!E10+'21'!E10+'22'!E10+'23'!E10+'24'!E10+'25'!E10+'26'!E10+'27'!E10+'28'!E10+'29'!E10+'30'!E10+'31'!E10</f>
@@ -52739,7 +52922,7 @@
       </c>
       <c r="I10" s="21">
         <f>'1'!I10+'2'!I10+'3'!I10+'4'!I10+'5'!I10+'6'!I10+'7'!I10+'8'!I10+'9'!I10+'10'!I10+'11'!I10+'12'!I10+'13'!I10+'14'!I10+'15'!I10+'16'!I10+'17'!I10+'18'!I10+'19'!I10+'20'!I10+'21'!I10+'22'!I10+'23'!I10+'24'!I10+'25'!I10+'26'!I10+'27'!I10+'28'!I10+'29'!I10+'30'!I10+'31'!I10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="21">
         <f>'1'!J10+'2'!J10+'3'!J10+'4'!J10+'5'!J10+'6'!J10+'7'!J10+'8'!J10+'9'!J10+'10'!J10+'11'!J10+'12'!J10+'13'!J10+'14'!J10+'15'!J10+'16'!J10+'17'!J10+'18'!J10+'19'!J10+'20'!J10+'21'!J10+'22'!J10+'23'!J10+'24'!J10+'25'!J10+'26'!J10+'27'!J10+'28'!J10+'29'!J10+'30'!J10+'31'!J10</f>
@@ -52755,32 +52938,32 @@
       </c>
       <c r="M10" s="20">
         <f t="shared" si="0"/>
-        <v>3073</v>
+        <v>7907</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="1"/>
-        <v>3073</v>
+        <v>8289</v>
       </c>
       <c r="O10" s="25">
         <f t="shared" si="2"/>
-        <v>84.507500000000007</v>
+        <v>217.4425</v>
       </c>
       <c r="P10" s="26"/>
       <c r="Q10" s="26">
         <f>'1'!Q10+'2'!Q10+'3'!Q10+'4'!Q10+'5'!Q10+'6'!Q10+'7'!Q10+'8'!Q10+'9'!Q10+'10'!Q10+'11'!Q10+'12'!Q10+'13'!Q10+'14'!Q10+'15'!Q10+'16'!Q10+'17'!Q10+'18'!Q10+'19'!Q10+'20'!Q10+'21'!Q10+'22'!Q10+'23'!Q10+'24'!Q10+'25'!Q10+'26'!Q10+'27'!Q10+'28'!Q10+'29'!Q10+'30'!Q10+'31'!Q10</f>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="R10" s="24">
         <f t="shared" si="3"/>
-        <v>2975.4924999999998</v>
+        <v>8025.5574999999999</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="4"/>
-        <v>29.1935</v>
+        <v>75.116500000000002</v>
       </c>
       <c r="T10" s="27">
         <f t="shared" si="5"/>
-        <v>16.1935</v>
+        <v>29.116500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75">
@@ -52795,15 +52978,15 @@
       </c>
       <c r="D11" s="21">
         <f>'1'!D11+'2'!D11+'3'!D11+'4'!D11+'5'!D11+'6'!D11+'7'!D11+'8'!D11+'9'!D11+'10'!D11+'11'!D11+'12'!D11+'13'!D11+'14'!D11+'15'!D11+'16'!D11+'17'!D11+'18'!D11+'19'!D11+'20'!D11+'21'!D11+'22'!D11+'23'!D11+'24'!D11+'25'!D11+'26'!D11+'27'!D11+'28'!D11+'29'!D11+'30'!D11+'31'!D11</f>
-        <v>5363</v>
+        <v>9309</v>
       </c>
       <c r="E11" s="21">
         <f>'1'!E11+'2'!E11+'3'!E11+'4'!E11+'5'!E11+'6'!E11+'7'!E11+'8'!E11+'9'!E11+'10'!E11+'11'!E11+'12'!E11+'13'!E11+'14'!E11+'15'!E11+'16'!E11+'17'!E11+'18'!E11+'19'!E11+'20'!E11+'21'!E11+'22'!E11+'23'!E11+'24'!E11+'25'!E11+'26'!E11+'27'!E11+'28'!E11+'29'!E11+'30'!E11+'31'!E11</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F11" s="21">
         <f>'1'!F11+'2'!F11+'3'!F11+'4'!F11+'5'!F11+'6'!F11+'7'!F11+'8'!F11+'9'!F11+'10'!F11+'11'!F11+'12'!F11+'13'!F11+'14'!F11+'15'!F11+'16'!F11+'17'!F11+'18'!F11+'19'!F11+'20'!F11+'21'!F11+'22'!F11+'23'!F11+'24'!F11+'25'!F11+'26'!F11+'27'!F11+'28'!F11+'29'!F11+'30'!F11+'31'!F11</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G11" s="21">
         <f>'1'!G11+'2'!G11+'3'!G11+'4'!G11+'5'!G11+'6'!G11+'7'!G11+'8'!G11+'9'!G11+'10'!G11+'11'!G11+'12'!G11+'13'!G11+'14'!G11+'15'!G11+'16'!G11+'17'!G11+'18'!G11+'19'!G11+'20'!G11+'21'!G11+'22'!G11+'23'!G11+'24'!G11+'25'!G11+'26'!G11+'27'!G11+'28'!G11+'29'!G11+'30'!G11+'31'!G11</f>
@@ -52811,7 +52994,7 @@
       </c>
       <c r="H11" s="21">
         <f>'1'!H11+'2'!H11+'3'!H11+'4'!H11+'5'!H11+'6'!H11+'7'!H11+'8'!H11+'9'!H11+'10'!H11+'11'!H11+'12'!H11+'13'!H11+'14'!H11+'15'!H11+'16'!H11+'17'!H11+'18'!H11+'19'!H11+'20'!H11+'21'!H11+'22'!H11+'23'!H11+'24'!H11+'25'!H11+'26'!H11+'27'!H11+'28'!H11+'29'!H11+'30'!H11+'31'!H11</f>
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="I11" s="21">
         <f>'1'!I11+'2'!I11+'3'!I11+'4'!I11+'5'!I11+'6'!I11+'7'!I11+'8'!I11+'9'!I11+'10'!I11+'11'!I11+'12'!I11+'13'!I11+'14'!I11+'15'!I11+'16'!I11+'17'!I11+'18'!I11+'19'!I11+'20'!I11+'21'!I11+'22'!I11+'23'!I11+'24'!I11+'25'!I11+'26'!I11+'27'!I11+'28'!I11+'29'!I11+'30'!I11+'31'!I11</f>
@@ -52831,32 +53014,32 @@
       </c>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>10141</v>
+        <v>15677</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>14832</v>
+        <v>20368</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>278.8775</v>
+        <v>431.11750000000001</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
         <f>'1'!Q11+'2'!Q11+'3'!Q11+'4'!Q11+'5'!Q11+'6'!Q11+'7'!Q11+'8'!Q11+'9'!Q11+'10'!Q11+'11'!Q11+'12'!Q11+'13'!Q11+'14'!Q11+'15'!Q11+'16'!Q11+'17'!Q11+'18'!Q11+'19'!Q11+'20'!Q11+'21'!Q11+'22'!Q11+'23'!Q11+'24'!Q11+'25'!Q11+'26'!Q11+'27'!Q11+'28'!Q11+'29'!Q11+'30'!Q11+'31'!Q11</f>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>14529.122499999999</v>
+        <v>19882.8825</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>96.339500000000001</v>
+        <v>148.9315</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>72.339500000000001</v>
+        <v>94.9315</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75">
@@ -52871,15 +53054,15 @@
       </c>
       <c r="D12" s="21">
         <f>'1'!D12+'2'!D12+'3'!D12+'4'!D12+'5'!D12+'6'!D12+'7'!D12+'8'!D12+'9'!D12+'10'!D12+'11'!D12+'12'!D12+'13'!D12+'14'!D12+'15'!D12+'16'!D12+'17'!D12+'18'!D12+'19'!D12+'20'!D12+'21'!D12+'22'!D12+'23'!D12+'24'!D12+'25'!D12+'26'!D12+'27'!D12+'28'!D12+'29'!D12+'30'!D12+'31'!D12</f>
-        <v>2469</v>
+        <v>7727</v>
       </c>
       <c r="E12" s="21">
         <f>'1'!E12+'2'!E12+'3'!E12+'4'!E12+'5'!E12+'6'!E12+'7'!E12+'8'!E12+'9'!E12+'10'!E12+'11'!E12+'12'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12+'20'!E12+'21'!E12+'22'!E12+'23'!E12+'24'!E12+'25'!E12+'26'!E12+'27'!E12+'28'!E12+'29'!E12+'30'!E12+'31'!E12</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F12" s="21">
         <f>'1'!F12+'2'!F12+'3'!F12+'4'!F12+'5'!F12+'6'!F12+'7'!F12+'8'!F12+'9'!F12+'10'!F12+'11'!F12+'12'!F12+'13'!F12+'14'!F12+'15'!F12+'16'!F12+'17'!F12+'18'!F12+'19'!F12+'20'!F12+'21'!F12+'22'!F12+'23'!F12+'24'!F12+'25'!F12+'26'!F12+'27'!F12+'28'!F12+'29'!F12+'30'!F12+'31'!F12</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G12" s="21">
         <f>'1'!G12+'2'!G12+'3'!G12+'4'!G12+'5'!G12+'6'!G12+'7'!G12+'8'!G12+'9'!G12+'10'!G12+'11'!G12+'12'!G12+'13'!G12+'14'!G12+'15'!G12+'16'!G12+'17'!G12+'18'!G12+'19'!G12+'20'!G12+'21'!G12+'22'!G12+'23'!G12+'24'!G12+'25'!G12+'26'!G12+'27'!G12+'28'!G12+'29'!G12+'30'!G12+'31'!G12</f>
@@ -52887,11 +53070,11 @@
       </c>
       <c r="H12" s="21">
         <f>'1'!H12+'2'!H12+'3'!H12+'4'!H12+'5'!H12+'6'!H12+'7'!H12+'8'!H12+'9'!H12+'10'!H12+'11'!H12+'12'!H12+'13'!H12+'14'!H12+'15'!H12+'16'!H12+'17'!H12+'18'!H12+'19'!H12+'20'!H12+'21'!H12+'22'!H12+'23'!H12+'24'!H12+'25'!H12+'26'!H12+'27'!H12+'28'!H12+'29'!H12+'30'!H12+'31'!H12</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I12" s="21">
         <f>'1'!I12+'2'!I12+'3'!I12+'4'!I12+'5'!I12+'6'!I12+'7'!I12+'8'!I12+'9'!I12+'10'!I12+'11'!I12+'12'!I12+'13'!I12+'14'!I12+'15'!I12+'16'!I12+'17'!I12+'18'!I12+'19'!I12+'20'!I12+'21'!I12+'22'!I12+'23'!I12+'24'!I12+'25'!I12+'26'!I12+'27'!I12+'28'!I12+'29'!I12+'30'!I12+'31'!I12</f>
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="J12" s="21">
         <f>'1'!J12+'2'!J12+'3'!J12+'4'!J12+'5'!J12+'6'!J12+'7'!J12+'8'!J12+'9'!J12+'10'!J12+'11'!J12+'12'!J12+'13'!J12+'14'!J12+'15'!J12+'16'!J12+'17'!J12+'18'!J12+'19'!J12+'20'!J12+'21'!J12+'22'!J12+'23'!J12+'24'!J12+'25'!J12+'26'!J12+'27'!J12+'28'!J12+'29'!J12+'30'!J12+'31'!J12</f>
@@ -52899,7 +53082,7 @@
       </c>
       <c r="K12" s="21">
         <f>'1'!K12+'2'!K12+'3'!K12+'4'!K12+'5'!K12+'6'!K12+'7'!K12+'8'!K12+'9'!K12+'10'!K12+'11'!K12+'12'!K12+'13'!K12+'14'!K12+'15'!K12+'16'!K12+'17'!K12+'18'!K12+'19'!K12+'20'!K12+'21'!K12+'22'!K12+'23'!K12+'24'!K12+'25'!K12+'26'!K12+'27'!K12+'28'!K12+'29'!K12+'30'!K12+'31'!K12</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L12" s="21">
         <f>'1'!L12+'2'!L12+'3'!L12+'4'!L12+'5'!L12+'6'!L12+'7'!L12+'8'!L12+'9'!L12+'10'!L12+'11'!L12+'12'!L12+'13'!L12+'14'!L12+'15'!L12+'16'!L12+'17'!L12+'18'!L12+'19'!L12+'20'!L12+'21'!L12+'22'!L12+'23'!L12+'24'!L12+'25'!L12+'26'!L12+'27'!L12+'28'!L12+'29'!L12+'30'!L12+'31'!L12</f>
@@ -52907,32 +53090,32 @@
       </c>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>2469</v>
+        <v>9677</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>122475</v>
+        <v>134368</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>67.897499999999994</v>
+        <v>266.11750000000001</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26">
         <f>'1'!Q12+'2'!Q12+'3'!Q12+'4'!Q12+'5'!Q12+'6'!Q12+'7'!Q12+'8'!Q12+'9'!Q12+'10'!Q12+'11'!Q12+'12'!Q12+'13'!Q12+'14'!Q12+'15'!Q12+'16'!Q12+'17'!Q12+'18'!Q12+'19'!Q12+'20'!Q12+'21'!Q12+'22'!Q12+'23'!Q12+'24'!Q12+'25'!Q12+'26'!Q12+'27'!Q12+'28'!Q12+'29'!Q12+'30'!Q12+'31'!Q12</f>
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>122386.10250000001</v>
+        <v>134046.88250000001</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>23.455500000000001</v>
+        <v>91.9315</v>
       </c>
       <c r="T12" s="27">
         <f t="shared" si="5"/>
-        <v>2.4555000000000007</v>
+        <v>36.9315</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75">
@@ -52947,7 +53130,7 @@
       </c>
       <c r="D13" s="21">
         <f>'1'!D13+'2'!D13+'3'!D13+'4'!D13+'5'!D13+'6'!D13+'7'!D13+'8'!D13+'9'!D13+'10'!D13+'11'!D13+'12'!D13+'13'!D13+'14'!D13+'15'!D13+'16'!D13+'17'!D13+'18'!D13+'19'!D13+'20'!D13+'21'!D13+'22'!D13+'23'!D13+'24'!D13+'25'!D13+'26'!D13+'27'!D13+'28'!D13+'29'!D13+'30'!D13+'31'!D13</f>
-        <v>2187</v>
+        <v>5690</v>
       </c>
       <c r="E13" s="21">
         <f>'1'!E13+'2'!E13+'3'!E13+'4'!E13+'5'!E13+'6'!E13+'7'!E13+'8'!E13+'9'!E13+'10'!E13+'11'!E13+'12'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13+'20'!E13+'21'!E13+'22'!E13+'23'!E13+'24'!E13+'25'!E13+'26'!E13+'27'!E13+'28'!E13+'29'!E13+'30'!E13+'31'!E13</f>
@@ -52983,32 +53166,32 @@
       </c>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>2187</v>
+        <v>5690</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>2187</v>
+        <v>5690</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>60.142499999999998</v>
+        <v>156.47499999999999</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26">
         <f>'1'!Q13+'2'!Q13+'3'!Q13+'4'!Q13+'5'!Q13+'6'!Q13+'7'!Q13+'8'!Q13+'9'!Q13+'10'!Q13+'11'!Q13+'12'!Q13+'13'!Q13+'14'!Q13+'15'!Q13+'16'!Q13+'17'!Q13+'18'!Q13+'19'!Q13+'20'!Q13+'21'!Q13+'22'!Q13+'23'!Q13+'24'!Q13+'25'!Q13+'26'!Q13+'27'!Q13+'28'!Q13+'29'!Q13+'30'!Q13+'31'!Q13</f>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>2110.8575000000001</v>
+        <v>5487.5249999999996</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>20.776499999999999</v>
+        <v>54.055</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>4.7764999999999986</v>
+        <v>8.0549999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75">
@@ -53023,7 +53206,7 @@
       </c>
       <c r="D14" s="21">
         <f>'1'!D14+'2'!D14+'3'!D14+'4'!D14+'5'!D14+'6'!D14+'7'!D14+'8'!D14+'9'!D14+'10'!D14+'11'!D14+'12'!D14+'13'!D14+'14'!D14+'15'!D14+'16'!D14+'17'!D14+'18'!D14+'19'!D14+'20'!D14+'21'!D14+'22'!D14+'23'!D14+'24'!D14+'25'!D14+'26'!D14+'27'!D14+'28'!D14+'29'!D14+'30'!D14+'31'!D14</f>
-        <v>6792</v>
+        <v>12868</v>
       </c>
       <c r="E14" s="21">
         <f>'1'!E14+'2'!E14+'3'!E14+'4'!E14+'5'!E14+'6'!E14+'7'!E14+'8'!E14+'9'!E14+'10'!E14+'11'!E14+'12'!E14+'13'!E14+'14'!E14+'15'!E14+'16'!E14+'17'!E14+'18'!E14+'19'!E14+'20'!E14+'21'!E14+'22'!E14+'23'!E14+'24'!E14+'25'!E14+'26'!E14+'27'!E14+'28'!E14+'29'!E14+'30'!E14+'31'!E14</f>
@@ -53043,7 +53226,7 @@
       </c>
       <c r="I14" s="21">
         <f>'1'!I14+'2'!I14+'3'!I14+'4'!I14+'5'!I14+'6'!I14+'7'!I14+'8'!I14+'9'!I14+'10'!I14+'11'!I14+'12'!I14+'13'!I14+'14'!I14+'15'!I14+'16'!I14+'17'!I14+'18'!I14+'19'!I14+'20'!I14+'21'!I14+'22'!I14+'23'!I14+'24'!I14+'25'!I14+'26'!I14+'27'!I14+'28'!I14+'29'!I14+'30'!I14+'31'!I14</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J14" s="21">
         <f>'1'!J14+'2'!J14+'3'!J14+'4'!J14+'5'!J14+'6'!J14+'7'!J14+'8'!J14+'9'!J14+'10'!J14+'11'!J14+'12'!J14+'13'!J14+'14'!J14+'15'!J14+'16'!J14+'17'!J14+'18'!J14+'19'!J14+'20'!J14+'21'!J14+'22'!J14+'23'!J14+'24'!J14+'25'!J14+'26'!J14+'27'!J14+'28'!J14+'29'!J14+'30'!J14+'31'!J14</f>
@@ -53059,32 +53242,32 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>16592</v>
+        <v>22668</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>20412</v>
+        <v>28398</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>456.28000000000003</v>
+        <v>623.37</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
         <f>'1'!Q14+'2'!Q14+'3'!Q14+'4'!Q14+'5'!Q14+'6'!Q14+'7'!Q14+'8'!Q14+'9'!Q14+'10'!Q14+'11'!Q14+'12'!Q14+'13'!Q14+'14'!Q14+'15'!Q14+'16'!Q14+'17'!Q14+'18'!Q14+'19'!Q14+'20'!Q14+'21'!Q14+'22'!Q14+'23'!Q14+'24'!Q14+'25'!Q14+'26'!Q14+'27'!Q14+'28'!Q14+'29'!Q14+'30'!Q14+'31'!Q14</f>
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>19869.72</v>
+        <v>27610.63</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>157.624</v>
+        <v>215.346</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>71.623999999999995</v>
+        <v>51.346000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75">
@@ -53099,11 +53282,11 @@
       </c>
       <c r="D15" s="21">
         <f>'1'!D15+'2'!D15+'3'!D15+'4'!D15+'5'!D15+'6'!D15+'7'!D15+'8'!D15+'9'!D15+'10'!D15+'11'!D15+'12'!D15+'13'!D15+'14'!D15+'15'!D15+'16'!D15+'17'!D15+'18'!D15+'19'!D15+'20'!D15+'21'!D15+'22'!D15+'23'!D15+'24'!D15+'25'!D15+'26'!D15+'27'!D15+'28'!D15+'29'!D15+'30'!D15+'31'!D15</f>
-        <v>21435</v>
+        <v>30295</v>
       </c>
       <c r="E15" s="21">
         <f>'1'!E15+'2'!E15+'3'!E15+'4'!E15+'5'!E15+'6'!E15+'7'!E15+'8'!E15+'9'!E15+'10'!E15+'11'!E15+'12'!E15+'13'!E15+'14'!E15+'15'!E15+'16'!E15+'17'!E15+'18'!E15+'19'!E15+'20'!E15+'21'!E15+'22'!E15+'23'!E15+'24'!E15+'25'!E15+'26'!E15+'27'!E15+'28'!E15+'29'!E15+'30'!E15+'31'!E15</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F15" s="21">
         <f>'1'!F15+'2'!F15+'3'!F15+'4'!F15+'5'!F15+'6'!F15+'7'!F15+'8'!F15+'9'!F15+'10'!F15+'11'!F15+'12'!F15+'13'!F15+'14'!F15+'15'!F15+'16'!F15+'17'!F15+'18'!F15+'19'!F15+'20'!F15+'21'!F15+'22'!F15+'23'!F15+'24'!F15+'25'!F15+'26'!F15+'27'!F15+'28'!F15+'29'!F15+'30'!F15+'31'!F15</f>
@@ -53119,7 +53302,7 @@
       </c>
       <c r="I15" s="21">
         <f>'1'!I15+'2'!I15+'3'!I15+'4'!I15+'5'!I15+'6'!I15+'7'!I15+'8'!I15+'9'!I15+'10'!I15+'11'!I15+'12'!I15+'13'!I15+'14'!I15+'15'!I15+'16'!I15+'17'!I15+'18'!I15+'19'!I15+'20'!I15+'21'!I15+'22'!I15+'23'!I15+'24'!I15+'25'!I15+'26'!I15+'27'!I15+'28'!I15+'29'!I15+'30'!I15+'31'!I15</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="21">
         <f>'1'!J15+'2'!J15+'3'!J15+'4'!J15+'5'!J15+'6'!J15+'7'!J15+'8'!J15+'9'!J15+'10'!J15+'11'!J15+'12'!J15+'13'!J15+'14'!J15+'15'!J15+'16'!J15+'17'!J15+'18'!J15+'19'!J15+'20'!J15+'21'!J15+'22'!J15+'23'!J15+'24'!J15+'25'!J15+'26'!J15+'27'!J15+'28'!J15+'29'!J15+'30'!J15+'31'!J15</f>
@@ -53135,32 +53318,32 @@
       </c>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>21435</v>
+        <v>30895</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>22008</v>
+        <v>32041</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>589.46249999999998</v>
+        <v>849.61249999999995</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26">
         <f>'1'!Q15+'2'!Q15+'3'!Q15+'4'!Q15+'5'!Q15+'6'!Q15+'7'!Q15+'8'!Q15+'9'!Q15+'10'!Q15+'11'!Q15+'12'!Q15+'13'!Q15+'14'!Q15+'15'!Q15+'16'!Q15+'17'!Q15+'18'!Q15+'19'!Q15+'20'!Q15+'21'!Q15+'22'!Q15+'23'!Q15+'24'!Q15+'25'!Q15+'26'!Q15+'27'!Q15+'28'!Q15+'29'!Q15+'30'!Q15+'31'!Q15</f>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>21298.537499999999</v>
+        <v>30991.387500000001</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>203.63249999999999</v>
+        <v>293.5025</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>83.632499999999993</v>
+        <v>93.502499999999998</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75">
@@ -53175,11 +53358,11 @@
       </c>
       <c r="D16" s="21">
         <f>'1'!D16+'2'!D16+'3'!D16+'4'!D16+'5'!D16+'6'!D16+'7'!D16+'8'!D16+'9'!D16+'10'!D16+'11'!D16+'12'!D16+'13'!D16+'14'!D16+'15'!D16+'16'!D16+'17'!D16+'18'!D16+'19'!D16+'20'!D16+'21'!D16+'22'!D16+'23'!D16+'24'!D16+'25'!D16+'26'!D16+'27'!D16+'28'!D16+'29'!D16+'30'!D16+'31'!D16</f>
-        <v>5552</v>
+        <v>10794</v>
       </c>
       <c r="E16" s="21">
         <f>'1'!E16+'2'!E16+'3'!E16+'4'!E16+'5'!E16+'6'!E16+'7'!E16+'8'!E16+'9'!E16+'10'!E16+'11'!E16+'12'!E16+'13'!E16+'14'!E16+'15'!E16+'16'!E16+'17'!E16+'18'!E16+'19'!E16+'20'!E16+'21'!E16+'22'!E16+'23'!E16+'24'!E16+'25'!E16+'26'!E16+'27'!E16+'28'!E16+'29'!E16+'30'!E16+'31'!E16</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F16" s="21">
         <f>'1'!F16+'2'!F16+'3'!F16+'4'!F16+'5'!F16+'6'!F16+'7'!F16+'8'!F16+'9'!F16+'10'!F16+'11'!F16+'12'!F16+'13'!F16+'14'!F16+'15'!F16+'16'!F16+'17'!F16+'18'!F16+'19'!F16+'20'!F16+'21'!F16+'22'!F16+'23'!F16+'24'!F16+'25'!F16+'26'!F16+'27'!F16+'28'!F16+'29'!F16+'30'!F16+'31'!F16</f>
@@ -53191,11 +53374,11 @@
       </c>
       <c r="H16" s="21">
         <f>'1'!H16+'2'!H16+'3'!H16+'4'!H16+'5'!H16+'6'!H16+'7'!H16+'8'!H16+'9'!H16+'10'!H16+'11'!H16+'12'!H16+'13'!H16+'14'!H16+'15'!H16+'16'!H16+'17'!H16+'18'!H16+'19'!H16+'20'!H16+'21'!H16+'22'!H16+'23'!H16+'24'!H16+'25'!H16+'26'!H16+'27'!H16+'28'!H16+'29'!H16+'30'!H16+'31'!H16</f>
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I16" s="21">
         <f>'1'!I16+'2'!I16+'3'!I16+'4'!I16+'5'!I16+'6'!I16+'7'!I16+'8'!I16+'9'!I16+'10'!I16+'11'!I16+'12'!I16+'13'!I16+'14'!I16+'15'!I16+'16'!I16+'17'!I16+'18'!I16+'19'!I16+'20'!I16+'21'!I16+'22'!I16+'23'!I16+'24'!I16+'25'!I16+'26'!I16+'27'!I16+'28'!I16+'29'!I16+'30'!I16+'31'!I16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="21">
         <f>'1'!J16+'2'!J16+'3'!J16+'4'!J16+'5'!J16+'6'!J16+'7'!J16+'8'!J16+'9'!J16+'10'!J16+'11'!J16+'12'!J16+'13'!J16+'14'!J16+'15'!J16+'16'!J16+'17'!J16+'18'!J16+'19'!J16+'20'!J16+'21'!J16+'22'!J16+'23'!J16+'24'!J16+'25'!J16+'26'!J16+'27'!J16+'28'!J16+'29'!J16+'30'!J16+'31'!J16</f>
@@ -53203,7 +53386,7 @@
       </c>
       <c r="K16" s="21">
         <f>'1'!K16+'2'!K16+'3'!K16+'4'!K16+'5'!K16+'6'!K16+'7'!K16+'8'!K16+'9'!K16+'10'!K16+'11'!K16+'12'!K16+'13'!K16+'14'!K16+'15'!K16+'16'!K16+'17'!K16+'18'!K16+'19'!K16+'20'!K16+'21'!K16+'22'!K16+'23'!K16+'24'!K16+'25'!K16+'26'!K16+'27'!K16+'28'!K16+'29'!K16+'30'!K16+'31'!K16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="21">
         <f>'1'!L16+'2'!L16+'3'!L16+'4'!L16+'5'!L16+'6'!L16+'7'!L16+'8'!L16+'9'!L16+'10'!L16+'11'!L16+'12'!L16+'13'!L16+'14'!L16+'15'!L16+'16'!L16+'17'!L16+'18'!L16+'19'!L16+'20'!L16+'21'!L16+'22'!L16+'23'!L16+'24'!L16+'25'!L16+'26'!L16+'27'!L16+'28'!L16+'29'!L16+'30'!L16+'31'!L16</f>
@@ -53211,32 +53394,32 @@
       </c>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>5804</v>
+        <v>12946</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>6186</v>
+        <v>13883</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>159.61000000000001</v>
+        <v>356.01499999999999</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26">
         <f>'1'!Q16+'2'!Q16+'3'!Q16+'4'!Q16+'5'!Q16+'6'!Q16+'7'!Q16+'8'!Q16+'9'!Q16+'10'!Q16+'11'!Q16+'12'!Q16+'13'!Q16+'14'!Q16+'15'!Q16+'16'!Q16+'17'!Q16+'18'!Q16+'19'!Q16+'20'!Q16+'21'!Q16+'22'!Q16+'23'!Q16+'24'!Q16+'25'!Q16+'26'!Q16+'27'!Q16+'28'!Q16+'29'!Q16+'30'!Q16+'31'!Q16</f>
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>5926.39</v>
+        <v>13366.985000000001</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>55.137999999999998</v>
+        <v>122.98699999999999</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>-44.862000000000002</v>
+        <v>-37.013000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75">
@@ -53251,7 +53434,7 @@
       </c>
       <c r="D17" s="21">
         <f>'1'!D17+'2'!D17+'3'!D17+'4'!D17+'5'!D17+'6'!D17+'7'!D17+'8'!D17+'9'!D17+'10'!D17+'11'!D17+'12'!D17+'13'!D17+'14'!D17+'15'!D17+'16'!D17+'17'!D17+'18'!D17+'19'!D17+'20'!D17+'21'!D17+'22'!D17+'23'!D17+'24'!D17+'25'!D17+'26'!D17+'27'!D17+'28'!D17+'29'!D17+'30'!D17+'31'!D17</f>
-        <v>3769</v>
+        <v>8188</v>
       </c>
       <c r="E17" s="21">
         <f>'1'!E17+'2'!E17+'3'!E17+'4'!E17+'5'!E17+'6'!E17+'7'!E17+'8'!E17+'9'!E17+'10'!E17+'11'!E17+'12'!E17+'13'!E17+'14'!E17+'15'!E17+'16'!E17+'17'!E17+'18'!E17+'19'!E17+'20'!E17+'21'!E17+'22'!E17+'23'!E17+'24'!E17+'25'!E17+'26'!E17+'27'!E17+'28'!E17+'29'!E17+'30'!E17+'31'!E17</f>
@@ -53259,7 +53442,7 @@
       </c>
       <c r="F17" s="21">
         <f>'1'!F17+'2'!F17+'3'!F17+'4'!F17+'5'!F17+'6'!F17+'7'!F17+'8'!F17+'9'!F17+'10'!F17+'11'!F17+'12'!F17+'13'!F17+'14'!F17+'15'!F17+'16'!F17+'17'!F17+'18'!F17+'19'!F17+'20'!F17+'21'!F17+'22'!F17+'23'!F17+'24'!F17+'25'!F17+'26'!F17+'27'!F17+'28'!F17+'29'!F17+'30'!F17+'31'!F17</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G17" s="21">
         <f>'1'!G17+'2'!G17+'3'!G17+'4'!G17+'5'!G17+'6'!G17+'7'!G17+'8'!G17+'9'!G17+'10'!G17+'11'!G17+'12'!G17+'13'!G17+'14'!G17+'15'!G17+'16'!G17+'17'!G17+'18'!G17+'19'!G17+'20'!G17+'21'!G17+'22'!G17+'23'!G17+'24'!G17+'25'!G17+'26'!G17+'27'!G17+'28'!G17+'29'!G17+'30'!G17+'31'!G17</f>
@@ -53267,11 +53450,11 @@
       </c>
       <c r="H17" s="21">
         <f>'1'!H17+'2'!H17+'3'!H17+'4'!H17+'5'!H17+'6'!H17+'7'!H17+'8'!H17+'9'!H17+'10'!H17+'11'!H17+'12'!H17+'13'!H17+'14'!H17+'15'!H17+'16'!H17+'17'!H17+'18'!H17+'19'!H17+'20'!H17+'21'!H17+'22'!H17+'23'!H17+'24'!H17+'25'!H17+'26'!H17+'27'!H17+'28'!H17+'29'!H17+'30'!H17+'31'!H17</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I17" s="21">
         <f>'1'!I17+'2'!I17+'3'!I17+'4'!I17+'5'!I17+'6'!I17+'7'!I17+'8'!I17+'9'!I17+'10'!I17+'11'!I17+'12'!I17+'13'!I17+'14'!I17+'15'!I17+'16'!I17+'17'!I17+'18'!I17+'19'!I17+'20'!I17+'21'!I17+'22'!I17+'23'!I17+'24'!I17+'25'!I17+'26'!I17+'27'!I17+'28'!I17+'29'!I17+'30'!I17+'31'!I17</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J17" s="21">
         <f>'1'!J17+'2'!J17+'3'!J17+'4'!J17+'5'!J17+'6'!J17+'7'!J17+'8'!J17+'9'!J17+'10'!J17+'11'!J17+'12'!J17+'13'!J17+'14'!J17+'15'!J17+'16'!J17+'17'!J17+'18'!J17+'19'!J17+'20'!J17+'21'!J17+'22'!J17+'23'!J17+'24'!J17+'25'!J17+'26'!J17+'27'!J17+'28'!J17+'29'!J17+'30'!J17+'31'!J17</f>
@@ -53279,7 +53462,7 @@
       </c>
       <c r="K17" s="21">
         <f>'1'!K17+'2'!K17+'3'!K17+'4'!K17+'5'!K17+'6'!K17+'7'!K17+'8'!K17+'9'!K17+'10'!K17+'11'!K17+'12'!K17+'13'!K17+'14'!K17+'15'!K17+'16'!K17+'17'!K17+'18'!K17+'19'!K17+'20'!K17+'21'!K17+'22'!K17+'23'!K17+'24'!K17+'25'!K17+'26'!K17+'27'!K17+'28'!K17+'29'!K17+'30'!K17+'31'!K17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="21">
         <f>'1'!L17+'2'!L17+'3'!L17+'4'!L17+'5'!L17+'6'!L17+'7'!L17+'8'!L17+'9'!L17+'10'!L17+'11'!L17+'12'!L17+'13'!L17+'14'!L17+'15'!L17+'16'!L17+'17'!L17+'18'!L17+'19'!L17+'20'!L17+'21'!L17+'22'!L17+'23'!L17+'24'!L17+'25'!L17+'26'!L17+'27'!L17+'28'!L17+'29'!L17+'30'!L17+'31'!L17</f>
@@ -53287,32 +53470,32 @@
       </c>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>4669</v>
+        <v>9568</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>7534</v>
+        <v>13361</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>128.39750000000001</v>
+        <v>263.12</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26">
         <f>'1'!Q17+'2'!Q17+'3'!Q17+'4'!Q17+'5'!Q17+'6'!Q17+'7'!Q17+'8'!Q17+'9'!Q17+'10'!Q17+'11'!Q17+'12'!Q17+'13'!Q17+'14'!Q17+'15'!Q17+'16'!Q17+'17'!Q17+'18'!Q17+'19'!Q17+'20'!Q17+'21'!Q17+'22'!Q17+'23'!Q17+'24'!Q17+'25'!Q17+'26'!Q17+'27'!Q17+'28'!Q17+'29'!Q17+'30'!Q17+'31'!Q17</f>
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>7325.6025</v>
+        <v>12972.88</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>44.355499999999999</v>
+        <v>90.896000000000001</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="5"/>
-        <v>-35.644500000000001</v>
+        <v>-34.103999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75">
@@ -53327,15 +53510,15 @@
       </c>
       <c r="D18" s="21">
         <f>'1'!D18+'2'!D18+'3'!D18+'4'!D18+'5'!D18+'6'!D18+'7'!D18+'8'!D18+'9'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
-        <v>4217</v>
+        <v>7922</v>
       </c>
       <c r="E18" s="21">
         <f>'1'!E18+'2'!E18+'3'!E18+'4'!E18+'5'!E18+'6'!E18+'7'!E18+'8'!E18+'9'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F18" s="21">
         <f>'1'!F18+'2'!F18+'3'!F18+'4'!F18+'5'!F18+'6'!F18+'7'!F18+'8'!F18+'9'!F18+'10'!F18+'11'!F18+'12'!F18+'13'!F18+'14'!F18+'15'!F18+'16'!F18+'17'!F18+'18'!F18+'19'!F18+'20'!F18+'21'!F18+'22'!F18+'23'!F18+'24'!F18+'25'!F18+'26'!F18+'27'!F18+'28'!F18+'29'!F18+'30'!F18+'31'!F18</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G18" s="21">
         <f>'1'!G18+'2'!G18+'3'!G18+'4'!G18+'5'!G18+'6'!G18+'7'!G18+'8'!G18+'9'!G18+'10'!G18+'11'!G18+'12'!G18+'13'!G18+'14'!G18+'15'!G18+'16'!G18+'17'!G18+'18'!G18+'19'!G18+'20'!G18+'21'!G18+'22'!G18+'23'!G18+'24'!G18+'25'!G18+'26'!G18+'27'!G18+'28'!G18+'29'!G18+'30'!G18+'31'!G18</f>
@@ -53343,11 +53526,11 @@
       </c>
       <c r="H18" s="21">
         <f>'1'!H18+'2'!H18+'3'!H18+'4'!H18+'5'!H18+'6'!H18+'7'!H18+'8'!H18+'9'!H18+'10'!H18+'11'!H18+'12'!H18+'13'!H18+'14'!H18+'15'!H18+'16'!H18+'17'!H18+'18'!H18+'19'!H18+'20'!H18+'21'!H18+'22'!H18+'23'!H18+'24'!H18+'25'!H18+'26'!H18+'27'!H18+'28'!H18+'29'!H18+'30'!H18+'31'!H18</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I18" s="21">
         <f>'1'!I18+'2'!I18+'3'!I18+'4'!I18+'5'!I18+'6'!I18+'7'!I18+'8'!I18+'9'!I18+'10'!I18+'11'!I18+'12'!I18+'13'!I18+'14'!I18+'15'!I18+'16'!I18+'17'!I18+'18'!I18+'19'!I18+'20'!I18+'21'!I18+'22'!I18+'23'!I18+'24'!I18+'25'!I18+'26'!I18+'27'!I18+'28'!I18+'29'!I18+'30'!I18+'31'!I18</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J18" s="21">
         <f>'1'!J18+'2'!J18+'3'!J18+'4'!J18+'5'!J18+'6'!J18+'7'!J18+'8'!J18+'9'!J18+'10'!J18+'11'!J18+'12'!J18+'13'!J18+'14'!J18+'15'!J18+'16'!J18+'17'!J18+'18'!J18+'19'!J18+'20'!J18+'21'!J18+'22'!J18+'23'!J18+'24'!J18+'25'!J18+'26'!J18+'27'!J18+'28'!J18+'29'!J18+'30'!J18+'31'!J18</f>
@@ -53363,32 +53546,32 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>4217</v>
+        <v>9302</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>6664</v>
+        <v>12704</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>115.9675</v>
+        <v>255.80500000000001</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
         <f>'1'!Q18+'2'!Q18+'3'!Q18+'4'!Q18+'5'!Q18+'6'!Q18+'7'!Q18+'8'!Q18+'9'!Q18+'10'!Q18+'11'!Q18+'12'!Q18+'13'!Q18+'14'!Q18+'15'!Q18+'16'!Q18+'17'!Q18+'18'!Q18+'19'!Q18+'20'!Q18+'21'!Q18+'22'!Q18+'23'!Q18+'24'!Q18+'25'!Q18+'26'!Q18+'27'!Q18+'28'!Q18+'29'!Q18+'30'!Q18+'31'!Q18</f>
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>6450.0325000000003</v>
+        <v>12250.195</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>40.061500000000002</v>
+        <v>88.369</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>-57.938499999999998</v>
+        <v>-109.631</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75">
@@ -53403,7 +53586,7 @@
       </c>
       <c r="D19" s="21">
         <f>'1'!D19+'2'!D19+'3'!D19+'4'!D19+'5'!D19+'6'!D19+'7'!D19+'8'!D19+'9'!D19+'10'!D19+'11'!D19+'12'!D19+'13'!D19+'14'!D19+'15'!D19+'16'!D19+'17'!D19+'18'!D19+'19'!D19+'20'!D19+'21'!D19+'22'!D19+'23'!D19+'24'!D19+'25'!D19+'26'!D19+'27'!D19+'28'!D19+'29'!D19+'30'!D19+'31'!D19</f>
-        <v>5140</v>
+        <v>14289</v>
       </c>
       <c r="E19" s="21">
         <f>'1'!E19+'2'!E19+'3'!E19+'4'!E19+'5'!E19+'6'!E19+'7'!E19+'8'!E19+'9'!E19+'10'!E19+'11'!E19+'12'!E19+'13'!E19+'14'!E19+'15'!E19+'16'!E19+'17'!E19+'18'!E19+'19'!E19+'20'!E19+'21'!E19+'22'!E19+'23'!E19+'24'!E19+'25'!E19+'26'!E19+'27'!E19+'28'!E19+'29'!E19+'30'!E19+'31'!E19</f>
@@ -53439,32 +53622,32 @@
       </c>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>5140</v>
+        <v>14289</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>5140</v>
+        <v>14289</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>141.35</v>
+        <v>392.94749999999999</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26">
         <f>'1'!Q19+'2'!Q19+'3'!Q19+'4'!Q19+'5'!Q19+'6'!Q19+'7'!Q19+'8'!Q19+'9'!Q19+'10'!Q19+'11'!Q19+'12'!Q19+'13'!Q19+'14'!Q19+'15'!Q19+'16'!Q19+'17'!Q19+'18'!Q19+'19'!Q19+'20'!Q19+'21'!Q19+'22'!Q19+'23'!Q19+'24'!Q19+'25'!Q19+'26'!Q19+'27'!Q19+'28'!Q19+'29'!Q19+'30'!Q19+'31'!Q19</f>
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="R19" s="24">
         <f t="shared" si="3"/>
-        <v>4900.6499999999996</v>
+        <v>13641.0525</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="4"/>
-        <v>48.83</v>
+        <v>135.74549999999999</v>
       </c>
       <c r="T19" s="27">
         <f t="shared" si="5"/>
-        <v>-49.17</v>
+        <v>-119.25450000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75">
@@ -53479,7 +53662,7 @@
       </c>
       <c r="D20" s="21">
         <f>'1'!D20+'2'!D20+'3'!D20+'4'!D20+'5'!D20+'6'!D20+'7'!D20+'8'!D20+'9'!D20+'10'!D20+'11'!D20+'12'!D20+'13'!D20+'14'!D20+'15'!D20+'16'!D20+'17'!D20+'18'!D20+'19'!D20+'20'!D20+'21'!D20+'22'!D20+'23'!D20+'24'!D20+'25'!D20+'26'!D20+'27'!D20+'28'!D20+'29'!D20+'30'!D20+'31'!D20</f>
-        <v>4421</v>
+        <v>8124</v>
       </c>
       <c r="E20" s="21">
         <f>'1'!E20+'2'!E20+'3'!E20+'4'!E20+'5'!E20+'6'!E20+'7'!E20+'8'!E20+'9'!E20+'10'!E20+'11'!E20+'12'!E20+'13'!E20+'14'!E20+'15'!E20+'16'!E20+'17'!E20+'18'!E20+'19'!E20+'20'!E20+'21'!E20+'22'!E20+'23'!E20+'24'!E20+'25'!E20+'26'!E20+'27'!E20+'28'!E20+'29'!E20+'30'!E20+'31'!E20</f>
@@ -53499,15 +53682,15 @@
       </c>
       <c r="I20" s="21">
         <f>'1'!I20+'2'!I20+'3'!I20+'4'!I20+'5'!I20+'6'!I20+'7'!I20+'8'!I20+'9'!I20+'10'!I20+'11'!I20+'12'!I20+'13'!I20+'14'!I20+'15'!I20+'16'!I20+'17'!I20+'18'!I20+'19'!I20+'20'!I20+'21'!I20+'22'!I20+'23'!I20+'24'!I20+'25'!I20+'26'!I20+'27'!I20+'28'!I20+'29'!I20+'30'!I20+'31'!I20</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J20" s="21">
         <f>'1'!J20+'2'!J20+'3'!J20+'4'!J20+'5'!J20+'6'!J20+'7'!J20+'8'!J20+'9'!J20+'10'!J20+'11'!J20+'12'!J20+'13'!J20+'14'!J20+'15'!J20+'16'!J20+'17'!J20+'18'!J20+'19'!J20+'20'!J20+'21'!J20+'22'!J20+'23'!J20+'24'!J20+'25'!J20+'26'!J20+'27'!J20+'28'!J20+'29'!J20+'30'!J20+'31'!J20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" s="21">
         <f>'1'!K20+'2'!K20+'3'!K20+'4'!K20+'5'!K20+'6'!K20+'7'!K20+'8'!K20+'9'!K20+'10'!K20+'11'!K20+'12'!K20+'13'!K20+'14'!K20+'15'!K20+'16'!K20+'17'!K20+'18'!K20+'19'!K20+'20'!K20+'21'!K20+'22'!K20+'23'!K20+'24'!K20+'25'!K20+'26'!K20+'27'!K20+'28'!K20+'29'!K20+'30'!K20+'31'!K20</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L20" s="21">
         <f>'1'!L20+'2'!L20+'3'!L20+'4'!L20+'5'!L20+'6'!L20+'7'!L20+'8'!L20+'9'!L20+'10'!L20+'11'!L20+'12'!L20+'13'!L20+'14'!L20+'15'!L20+'16'!L20+'17'!L20+'18'!L20+'19'!L20+'20'!L20+'21'!L20+'22'!L20+'23'!L20+'24'!L20+'25'!L20+'26'!L20+'27'!L20+'28'!L20+'29'!L20+'30'!L20+'31'!L20</f>
@@ -53515,32 +53698,32 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>4421</v>
+        <v>8124</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>4421</v>
+        <v>22505</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>121.5775</v>
+        <v>223.41</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26">
         <f>'1'!Q20+'2'!Q20+'3'!Q20+'4'!Q20+'5'!Q20+'6'!Q20+'7'!Q20+'8'!Q20+'9'!Q20+'10'!Q20+'11'!Q20+'12'!Q20+'13'!Q20+'14'!Q20+'15'!Q20+'16'!Q20+'17'!Q20+'18'!Q20+'19'!Q20+'20'!Q20+'21'!Q20+'22'!Q20+'23'!Q20+'24'!Q20+'25'!Q20+'26'!Q20+'27'!Q20+'28'!Q20+'29'!Q20+'30'!Q20+'31'!Q20</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>4199.4224999999997</v>
+        <v>22081.59</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>41.999499999999998</v>
+        <v>77.177999999999997</v>
       </c>
       <c r="T20" s="27">
         <f t="shared" si="5"/>
-        <v>-58.000500000000002</v>
+        <v>-122.822</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75">
@@ -53555,15 +53738,15 @@
       </c>
       <c r="D21" s="21">
         <f>'1'!D21+'2'!D21+'3'!D21+'4'!D21+'5'!D21+'6'!D21+'7'!D21+'8'!D21+'9'!D21+'10'!D21+'11'!D21+'12'!D21+'13'!D21+'14'!D21+'15'!D21+'16'!D21+'17'!D21+'18'!D21+'19'!D21+'20'!D21+'21'!D21+'22'!D21+'23'!D21+'24'!D21+'25'!D21+'26'!D21+'27'!D21+'28'!D21+'29'!D21+'30'!D21+'31'!D21</f>
-        <v>1513</v>
+        <v>4829</v>
       </c>
       <c r="E21" s="21">
         <f>'1'!E21+'2'!E21+'3'!E21+'4'!E21+'5'!E21+'6'!E21+'7'!E21+'8'!E21+'9'!E21+'10'!E21+'11'!E21+'12'!E21+'13'!E21+'14'!E21+'15'!E21+'16'!E21+'17'!E21+'18'!E21+'19'!E21+'20'!E21+'21'!E21+'22'!E21+'23'!E21+'24'!E21+'25'!E21+'26'!E21+'27'!E21+'28'!E21+'29'!E21+'30'!E21+'31'!E21</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F21" s="21">
         <f>'1'!F21+'2'!F21+'3'!F21+'4'!F21+'5'!F21+'6'!F21+'7'!F21+'8'!F21+'9'!F21+'10'!F21+'11'!F21+'12'!F21+'13'!F21+'14'!F21+'15'!F21+'16'!F21+'17'!F21+'18'!F21+'19'!F21+'20'!F21+'21'!F21+'22'!F21+'23'!F21+'24'!F21+'25'!F21+'26'!F21+'27'!F21+'28'!F21+'29'!F21+'30'!F21+'31'!F21</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G21" s="21">
         <f>'1'!G21+'2'!G21+'3'!G21+'4'!G21+'5'!G21+'6'!G21+'7'!G21+'8'!G21+'9'!G21+'10'!G21+'11'!G21+'12'!G21+'13'!G21+'14'!G21+'15'!G21+'16'!G21+'17'!G21+'18'!G21+'19'!G21+'20'!G21+'21'!G21+'22'!G21+'23'!G21+'24'!G21+'25'!G21+'26'!G21+'27'!G21+'28'!G21+'29'!G21+'30'!G21+'31'!G21</f>
@@ -53571,11 +53754,11 @@
       </c>
       <c r="H21" s="21">
         <f>'1'!H21+'2'!H21+'3'!H21+'4'!H21+'5'!H21+'6'!H21+'7'!H21+'8'!H21+'9'!H21+'10'!H21+'11'!H21+'12'!H21+'13'!H21+'14'!H21+'15'!H21+'16'!H21+'17'!H21+'18'!H21+'19'!H21+'20'!H21+'21'!H21+'22'!H21+'23'!H21+'24'!H21+'25'!H21+'26'!H21+'27'!H21+'28'!H21+'29'!H21+'30'!H21+'31'!H21</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I21" s="21">
         <f>'1'!I21+'2'!I21+'3'!I21+'4'!I21+'5'!I21+'6'!I21+'7'!I21+'8'!I21+'9'!I21+'10'!I21+'11'!I21+'12'!I21+'13'!I21+'14'!I21+'15'!I21+'16'!I21+'17'!I21+'18'!I21+'19'!I21+'20'!I21+'21'!I21+'22'!I21+'23'!I21+'24'!I21+'25'!I21+'26'!I21+'27'!I21+'28'!I21+'29'!I21+'30'!I21+'31'!I21</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J21" s="21">
         <f>'1'!J21+'2'!J21+'3'!J21+'4'!J21+'5'!J21+'6'!J21+'7'!J21+'8'!J21+'9'!J21+'10'!J21+'11'!J21+'12'!J21+'13'!J21+'14'!J21+'15'!J21+'16'!J21+'17'!J21+'18'!J21+'19'!J21+'20'!J21+'21'!J21+'22'!J21+'23'!J21+'24'!J21+'25'!J21+'26'!J21+'27'!J21+'28'!J21+'29'!J21+'30'!J21+'31'!J21</f>
@@ -53591,32 +53774,32 @@
       </c>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>4013</v>
+        <v>9009</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>5350</v>
+        <v>11301</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>110.3575</v>
+        <v>247.7475</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26">
         <f>'1'!Q21+'2'!Q21+'3'!Q21+'4'!Q21+'5'!Q21+'6'!Q21+'7'!Q21+'8'!Q21+'9'!Q21+'10'!Q21+'11'!Q21+'12'!Q21+'13'!Q21+'14'!Q21+'15'!Q21+'16'!Q21+'17'!Q21+'18'!Q21+'19'!Q21+'20'!Q21+'21'!Q21+'22'!Q21+'23'!Q21+'24'!Q21+'25'!Q21+'26'!Q21+'27'!Q21+'28'!Q21+'29'!Q21+'30'!Q21+'31'!Q21</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>5239.6424999999999</v>
+        <v>11020.252500000001</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>38.1235</v>
+        <v>85.585499999999996</v>
       </c>
       <c r="T21" s="27">
         <f t="shared" si="5"/>
-        <v>38.1235</v>
+        <v>52.585499999999996</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75">
@@ -53631,7 +53814,7 @@
       </c>
       <c r="D22" s="21">
         <f>'1'!D22+'2'!D22+'3'!D22+'4'!D22+'5'!D22+'6'!D22+'7'!D22+'8'!D22+'9'!D22+'10'!D22+'11'!D22+'12'!D22+'13'!D22+'14'!D22+'15'!D22+'16'!D22+'17'!D22+'18'!D22+'19'!D22+'20'!D22+'21'!D22+'22'!D22+'23'!D22+'24'!D22+'25'!D22+'26'!D22+'27'!D22+'28'!D22+'29'!D22+'30'!D22+'31'!D22</f>
-        <v>2074</v>
+        <v>9074</v>
       </c>
       <c r="E22" s="21">
         <f>'1'!E22+'2'!E22+'3'!E22+'4'!E22+'5'!E22+'6'!E22+'7'!E22+'8'!E22+'9'!E22+'10'!E22+'11'!E22+'12'!E22+'13'!E22+'14'!E22+'15'!E22+'16'!E22+'17'!E22+'18'!E22+'19'!E22+'20'!E22+'21'!E22+'22'!E22+'23'!E22+'24'!E22+'25'!E22+'26'!E22+'27'!E22+'28'!E22+'29'!E22+'30'!E22+'31'!E22</f>
@@ -53647,11 +53830,11 @@
       </c>
       <c r="H22" s="21">
         <f>'1'!H22+'2'!H22+'3'!H22+'4'!H22+'5'!H22+'6'!H22+'7'!H22+'8'!H22+'9'!H22+'10'!H22+'11'!H22+'12'!H22+'13'!H22+'14'!H22+'15'!H22+'16'!H22+'17'!H22+'18'!H22+'19'!H22+'20'!H22+'21'!H22+'22'!H22+'23'!H22+'24'!H22+'25'!H22+'26'!H22+'27'!H22+'28'!H22+'29'!H22+'30'!H22+'31'!H22</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="21">
         <f>'1'!I22+'2'!I22+'3'!I22+'4'!I22+'5'!I22+'6'!I22+'7'!I22+'8'!I22+'9'!I22+'10'!I22+'11'!I22+'12'!I22+'13'!I22+'14'!I22+'15'!I22+'16'!I22+'17'!I22+'18'!I22+'19'!I22+'20'!I22+'21'!I22+'22'!I22+'23'!I22+'24'!I22+'25'!I22+'26'!I22+'27'!I22+'28'!I22+'29'!I22+'30'!I22+'31'!I22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" s="21">
         <f>'1'!J22+'2'!J22+'3'!J22+'4'!J22+'5'!J22+'6'!J22+'7'!J22+'8'!J22+'9'!J22+'10'!J22+'11'!J22+'12'!J22+'13'!J22+'14'!J22+'15'!J22+'16'!J22+'17'!J22+'18'!J22+'19'!J22+'20'!J22+'21'!J22+'22'!J22+'23'!J22+'24'!J22+'25'!J22+'26'!J22+'27'!J22+'28'!J22+'29'!J22+'30'!J22+'31'!J22</f>
@@ -53667,32 +53850,32 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>2074</v>
+        <v>9974</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>2074</v>
+        <v>15704</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>57.035000000000004</v>
+        <v>274.28500000000003</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26">
         <f>'1'!Q22+'2'!Q22+'3'!Q22+'4'!Q22+'5'!Q22+'6'!Q22+'7'!Q22+'8'!Q22+'9'!Q22+'10'!Q22+'11'!Q22+'12'!Q22+'13'!Q22+'14'!Q22+'15'!Q22+'16'!Q22+'17'!Q22+'18'!Q22+'19'!Q22+'20'!Q22+'21'!Q22+'22'!Q22+'23'!Q22+'24'!Q22+'25'!Q22+'26'!Q22+'27'!Q22+'28'!Q22+'29'!Q22+'30'!Q22+'31'!Q22</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>2016.9649999999999</v>
+        <v>15342.715</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>19.702999999999999</v>
+        <v>94.753</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>19.702999999999999</v>
+        <v>7.7530000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75">
@@ -53707,7 +53890,7 @@
       </c>
       <c r="D23" s="21">
         <f>'1'!D23+'2'!D23+'3'!D23+'4'!D23+'5'!D23+'6'!D23+'7'!D23+'8'!D23+'9'!D23+'10'!D23+'11'!D23+'12'!D23+'13'!D23+'14'!D23+'15'!D23+'16'!D23+'17'!D23+'18'!D23+'19'!D23+'20'!D23+'21'!D23+'22'!D23+'23'!D23+'24'!D23+'25'!D23+'26'!D23+'27'!D23+'28'!D23+'29'!D23+'30'!D23+'31'!D23</f>
-        <v>4625</v>
+        <v>10152</v>
       </c>
       <c r="E23" s="21">
         <f>'1'!E23+'2'!E23+'3'!E23+'4'!E23+'5'!E23+'6'!E23+'7'!E23+'8'!E23+'9'!E23+'10'!E23+'11'!E23+'12'!E23+'13'!E23+'14'!E23+'15'!E23+'16'!E23+'17'!E23+'18'!E23+'19'!E23+'20'!E23+'21'!E23+'22'!E23+'23'!E23+'24'!E23+'25'!E23+'26'!E23+'27'!E23+'28'!E23+'29'!E23+'30'!E23+'31'!E23</f>
@@ -53743,32 +53926,32 @@
       </c>
       <c r="M23" s="20">
         <f t="shared" si="0"/>
-        <v>8425</v>
+        <v>13952</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>14474</v>
+        <v>20001</v>
       </c>
       <c r="O23" s="25">
         <f t="shared" si="2"/>
-        <v>231.6875</v>
+        <v>383.68</v>
       </c>
       <c r="P23" s="26"/>
       <c r="Q23" s="26">
         <f>'1'!Q23+'2'!Q23+'3'!Q23+'4'!Q23+'5'!Q23+'6'!Q23+'7'!Q23+'8'!Q23+'9'!Q23+'10'!Q23+'11'!Q23+'12'!Q23+'13'!Q23+'14'!Q23+'15'!Q23+'16'!Q23+'17'!Q23+'18'!Q23+'19'!Q23+'20'!Q23+'21'!Q23+'22'!Q23+'23'!Q23+'24'!Q23+'25'!Q23+'26'!Q23+'27'!Q23+'28'!Q23+'29'!Q23+'30'!Q23+'31'!Q23</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R23" s="24">
         <f t="shared" si="3"/>
-        <v>14242.3125</v>
+        <v>19567.32</v>
       </c>
       <c r="S23" s="25">
         <f t="shared" si="4"/>
-        <v>80.037499999999994</v>
+        <v>132.54399999999998</v>
       </c>
       <c r="T23" s="27">
         <f t="shared" si="5"/>
-        <v>80.037499999999994</v>
+        <v>82.543999999999983</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75">
@@ -53783,7 +53966,7 @@
       </c>
       <c r="D24" s="21">
         <f>'1'!D24+'2'!D24+'3'!D24+'4'!D24+'5'!D24+'6'!D24+'7'!D24+'8'!D24+'9'!D24+'10'!D24+'11'!D24+'12'!D24+'13'!D24+'14'!D24+'15'!D24+'16'!D24+'17'!D24+'18'!D24+'19'!D24+'20'!D24+'21'!D24+'22'!D24+'23'!D24+'24'!D24+'25'!D24+'26'!D24+'27'!D24+'28'!D24+'29'!D24+'30'!D24+'31'!D24</f>
-        <v>9351</v>
+        <v>19939</v>
       </c>
       <c r="E24" s="21">
         <f>'1'!E24+'2'!E24+'3'!E24+'4'!E24+'5'!E24+'6'!E24+'7'!E24+'8'!E24+'9'!E24+'10'!E24+'11'!E24+'12'!E24+'13'!E24+'14'!E24+'15'!E24+'16'!E24+'17'!E24+'18'!E24+'19'!E24+'20'!E24+'21'!E24+'22'!E24+'23'!E24+'24'!E24+'25'!E24+'26'!E24+'27'!E24+'28'!E24+'29'!E24+'30'!E24+'31'!E24</f>
@@ -53799,11 +53982,11 @@
       </c>
       <c r="H24" s="21">
         <f>'1'!H24+'2'!H24+'3'!H24+'4'!H24+'5'!H24+'6'!H24+'7'!H24+'8'!H24+'9'!H24+'10'!H24+'11'!H24+'12'!H24+'13'!H24+'14'!H24+'15'!H24+'16'!H24+'17'!H24+'18'!H24+'19'!H24+'20'!H24+'21'!H24+'22'!H24+'23'!H24+'24'!H24+'25'!H24+'26'!H24+'27'!H24+'28'!H24+'29'!H24+'30'!H24+'31'!H24</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21">
         <f>'1'!I24+'2'!I24+'3'!I24+'4'!I24+'5'!I24+'6'!I24+'7'!I24+'8'!I24+'9'!I24+'10'!I24+'11'!I24+'12'!I24+'13'!I24+'14'!I24+'15'!I24+'16'!I24+'17'!I24+'18'!I24+'19'!I24+'20'!I24+'21'!I24+'22'!I24+'23'!I24+'24'!I24+'25'!I24+'26'!I24+'27'!I24+'28'!I24+'29'!I24+'30'!I24+'31'!I24</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J24" s="21">
         <f>'1'!J24+'2'!J24+'3'!J24+'4'!J24+'5'!J24+'6'!J24+'7'!J24+'8'!J24+'9'!J24+'10'!J24+'11'!J24+'12'!J24+'13'!J24+'14'!J24+'15'!J24+'16'!J24+'17'!J24+'18'!J24+'19'!J24+'20'!J24+'21'!J24+'22'!J24+'23'!J24+'24'!J24+'25'!J24+'26'!J24+'27'!J24+'28'!J24+'29'!J24+'30'!J24+'31'!J24</f>
@@ -53811,7 +53994,7 @@
       </c>
       <c r="K24" s="21">
         <f>'1'!K24+'2'!K24+'3'!K24+'4'!K24+'5'!K24+'6'!K24+'7'!K24+'8'!K24+'9'!K24+'10'!K24+'11'!K24+'12'!K24+'13'!K24+'14'!K24+'15'!K24+'16'!K24+'17'!K24+'18'!K24+'19'!K24+'20'!K24+'21'!K24+'22'!K24+'23'!K24+'24'!K24+'25'!K24+'26'!K24+'27'!K24+'28'!K24+'29'!K24+'30'!K24+'31'!K24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24" s="21">
         <f>'1'!L24+'2'!L24+'3'!L24+'4'!L24+'5'!L24+'6'!L24+'7'!L24+'8'!L24+'9'!L24+'10'!L24+'11'!L24+'12'!L24+'13'!L24+'14'!L24+'15'!L24+'16'!L24+'17'!L24+'18'!L24+'19'!L24+'20'!L24+'21'!L24+'22'!L24+'23'!L24+'24'!L24+'25'!L24+'26'!L24+'27'!L24+'28'!L24+'29'!L24+'30'!L24+'31'!L24</f>
@@ -53819,32 +54002,32 @@
       </c>
       <c r="M24" s="20">
         <f t="shared" si="0"/>
-        <v>10251</v>
+        <v>21739</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="1"/>
-        <v>26486</v>
+        <v>40794</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>281.90249999999997</v>
+        <v>597.82249999999999</v>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26">
         <f>'1'!Q24+'2'!Q24+'3'!Q24+'4'!Q24+'5'!Q24+'6'!Q24+'7'!Q24+'8'!Q24+'9'!Q24+'10'!Q24+'11'!Q24+'12'!Q24+'13'!Q24+'14'!Q24+'15'!Q24+'16'!Q24+'17'!Q24+'18'!Q24+'19'!Q24+'20'!Q24+'21'!Q24+'22'!Q24+'23'!Q24+'24'!Q24+'25'!Q24+'26'!Q24+'27'!Q24+'28'!Q24+'29'!Q24+'30'!Q24+'31'!Q24</f>
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
-        <v>26110.0975</v>
+        <v>40005.177500000005</v>
       </c>
       <c r="S24" s="25">
         <f t="shared" si="4"/>
-        <v>97.384500000000003</v>
+        <v>206.5205</v>
       </c>
       <c r="T24" s="27">
         <f t="shared" si="5"/>
-        <v>3.3845000000000027</v>
+        <v>15.520499999999998</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75">
@@ -53859,7 +54042,7 @@
       </c>
       <c r="D25" s="21">
         <f>'1'!D25+'2'!D25+'3'!D25+'4'!D25+'5'!D25+'6'!D25+'7'!D25+'8'!D25+'9'!D25+'10'!D25+'11'!D25+'12'!D25+'13'!D25+'14'!D25+'15'!D25+'16'!D25+'17'!D25+'18'!D25+'19'!D25+'20'!D25+'21'!D25+'22'!D25+'23'!D25+'24'!D25+'25'!D25+'26'!D25+'27'!D25+'28'!D25+'29'!D25+'30'!D25+'31'!D25</f>
-        <v>4012</v>
+        <v>7408</v>
       </c>
       <c r="E25" s="21">
         <f>'1'!E25+'2'!E25+'3'!E25+'4'!E25+'5'!E25+'6'!E25+'7'!E25+'8'!E25+'9'!E25+'10'!E25+'11'!E25+'12'!E25+'13'!E25+'14'!E25+'15'!E25+'16'!E25+'17'!E25+'18'!E25+'19'!E25+'20'!E25+'21'!E25+'22'!E25+'23'!E25+'24'!E25+'25'!E25+'26'!E25+'27'!E25+'28'!E25+'29'!E25+'30'!E25+'31'!E25</f>
@@ -53895,32 +54078,32 @@
       </c>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>4012</v>
+        <v>7408</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>4012</v>
+        <v>7408</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>110.33</v>
+        <v>203.72</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26">
         <f>'1'!Q25+'2'!Q25+'3'!Q25+'4'!Q25+'5'!Q25+'6'!Q25+'7'!Q25+'8'!Q25+'9'!Q25+'10'!Q25+'11'!Q25+'12'!Q25+'13'!Q25+'14'!Q25+'15'!Q25+'16'!Q25+'17'!Q25+'18'!Q25+'19'!Q25+'20'!Q25+'21'!Q25+'22'!Q25+'23'!Q25+'24'!Q25+'25'!Q25+'26'!Q25+'27'!Q25+'28'!Q25+'29'!Q25+'30'!Q25+'31'!Q25</f>
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>3866.67</v>
+        <v>7139.28</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>38.113999999999997</v>
+        <v>70.376000000000005</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>3.1139999999999972</v>
+        <v>5.3760000000000048</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75">
@@ -53935,7 +54118,7 @@
       </c>
       <c r="D26" s="21">
         <f>'1'!D26+'2'!D26+'3'!D26+'4'!D26+'5'!D26+'6'!D26+'7'!D26+'8'!D26+'9'!D26+'10'!D26+'11'!D26+'12'!D26+'13'!D26+'14'!D26+'15'!D26+'16'!D26+'17'!D26+'18'!D26+'19'!D26+'20'!D26+'21'!D26+'22'!D26+'23'!D26+'24'!D26+'25'!D26+'26'!D26+'27'!D26+'28'!D26+'29'!D26+'30'!D26+'31'!D26</f>
-        <v>1696</v>
+        <v>4061</v>
       </c>
       <c r="E26" s="21">
         <f>'1'!E26+'2'!E26+'3'!E26+'4'!E26+'5'!E26+'6'!E26+'7'!E26+'8'!E26+'9'!E26+'10'!E26+'11'!E26+'12'!E26+'13'!E26+'14'!E26+'15'!E26+'16'!E26+'17'!E26+'18'!E26+'19'!E26+'20'!E26+'21'!E26+'22'!E26+'23'!E26+'24'!E26+'25'!E26+'26'!E26+'27'!E26+'28'!E26+'29'!E26+'30'!E26+'31'!E26</f>
@@ -53943,7 +54126,7 @@
       </c>
       <c r="F26" s="21">
         <f>'1'!F26+'2'!F26+'3'!F26+'4'!F26+'5'!F26+'6'!F26+'7'!F26+'8'!F26+'9'!F26+'10'!F26+'11'!F26+'12'!F26+'13'!F26+'14'!F26+'15'!F26+'16'!F26+'17'!F26+'18'!F26+'19'!F26+'20'!F26+'21'!F26+'22'!F26+'23'!F26+'24'!F26+'25'!F26+'26'!F26+'27'!F26+'28'!F26+'29'!F26+'30'!F26+'31'!F26</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26" s="21">
         <f>'1'!G26+'2'!G26+'3'!G26+'4'!G26+'5'!G26+'6'!G26+'7'!G26+'8'!G26+'9'!G26+'10'!G26+'11'!G26+'12'!G26+'13'!G26+'14'!G26+'15'!G26+'16'!G26+'17'!G26+'18'!G26+'19'!G26+'20'!G26+'21'!G26+'22'!G26+'23'!G26+'24'!G26+'25'!G26+'26'!G26+'27'!G26+'28'!G26+'29'!G26+'30'!G26+'31'!G26</f>
@@ -53951,7 +54134,7 @@
       </c>
       <c r="H26" s="21">
         <f>'1'!H26+'2'!H26+'3'!H26+'4'!H26+'5'!H26+'6'!H26+'7'!H26+'8'!H26+'9'!H26+'10'!H26+'11'!H26+'12'!H26+'13'!H26+'14'!H26+'15'!H26+'16'!H26+'17'!H26+'18'!H26+'19'!H26+'20'!H26+'21'!H26+'22'!H26+'23'!H26+'24'!H26+'25'!H26+'26'!H26+'27'!H26+'28'!H26+'29'!H26+'30'!H26+'31'!H26</f>
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="I26" s="21">
         <f>'1'!I26+'2'!I26+'3'!I26+'4'!I26+'5'!I26+'6'!I26+'7'!I26+'8'!I26+'9'!I26+'10'!I26+'11'!I26+'12'!I26+'13'!I26+'14'!I26+'15'!I26+'16'!I26+'17'!I26+'18'!I26+'19'!I26+'20'!I26+'21'!I26+'22'!I26+'23'!I26+'24'!I26+'25'!I26+'26'!I26+'27'!I26+'28'!I26+'29'!I26+'30'!I26+'31'!I26</f>
@@ -53971,32 +54154,32 @@
       </c>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>4396</v>
+        <v>7491</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>7261</v>
+        <v>10356</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>120.89</v>
+        <v>206.0025</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26">
         <f>'1'!Q26+'2'!Q26+'3'!Q26+'4'!Q26+'5'!Q26+'6'!Q26+'7'!Q26+'8'!Q26+'9'!Q26+'10'!Q26+'11'!Q26+'12'!Q26+'13'!Q26+'14'!Q26+'15'!Q26+'16'!Q26+'17'!Q26+'18'!Q26+'19'!Q26+'20'!Q26+'21'!Q26+'22'!Q26+'23'!Q26+'24'!Q26+'25'!Q26+'26'!Q26+'27'!Q26+'28'!Q26+'29'!Q26+'30'!Q26+'31'!Q26</f>
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>7090.11</v>
+        <v>9989.9975000000013</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>41.762</v>
+        <v>71.164500000000004</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="5"/>
-        <v>-8.2379999999999995</v>
+        <v>-88.835499999999996</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" thickBot="1">
@@ -54011,7 +54194,7 @@
       </c>
       <c r="D27" s="21">
         <f>'1'!D27+'2'!D27+'3'!D27+'4'!D27+'5'!D27+'6'!D27+'7'!D27+'8'!D27+'9'!D27+'10'!D27+'11'!D27+'12'!D27+'13'!D27+'14'!D27+'15'!D27+'16'!D27+'17'!D27+'18'!D27+'19'!D27+'20'!D27+'21'!D27+'22'!D27+'23'!D27+'24'!D27+'25'!D27+'26'!D27+'27'!D27+'28'!D27+'29'!D27+'30'!D27+'31'!D27</f>
-        <v>1440</v>
+        <v>6990</v>
       </c>
       <c r="E27" s="21">
         <f>'1'!E27+'2'!E27+'3'!E27+'4'!E27+'5'!E27+'6'!E27+'7'!E27+'8'!E27+'9'!E27+'10'!E27+'11'!E27+'12'!E27+'13'!E27+'14'!E27+'15'!E27+'16'!E27+'17'!E27+'18'!E27+'19'!E27+'20'!E27+'21'!E27+'22'!E27+'23'!E27+'24'!E27+'25'!E27+'26'!E27+'27'!E27+'28'!E27+'29'!E27+'30'!E27+'31'!E27</f>
@@ -54031,7 +54214,7 @@
       </c>
       <c r="I27" s="21">
         <f>'1'!I27+'2'!I27+'3'!I27+'4'!I27+'5'!I27+'6'!I27+'7'!I27+'8'!I27+'9'!I27+'10'!I27+'11'!I27+'12'!I27+'13'!I27+'14'!I27+'15'!I27+'16'!I27+'17'!I27+'18'!I27+'19'!I27+'20'!I27+'21'!I27+'22'!I27+'23'!I27+'24'!I27+'25'!I27+'26'!I27+'27'!I27+'28'!I27+'29'!I27+'30'!I27+'31'!I27</f>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J27" s="21">
         <f>'1'!J27+'2'!J27+'3'!J27+'4'!J27+'5'!J27+'6'!J27+'7'!J27+'8'!J27+'9'!J27+'10'!J27+'11'!J27+'12'!J27+'13'!J27+'14'!J27+'15'!J27+'16'!J27+'17'!J27+'18'!J27+'19'!J27+'20'!J27+'21'!J27+'22'!J27+'23'!J27+'24'!J27+'25'!J27+'26'!J27+'27'!J27+'28'!J27+'29'!J27+'30'!J27+'31'!J27</f>
@@ -54047,32 +54230,32 @@
       </c>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>6890</v>
+        <v>12440</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>18251</v>
+        <v>24756</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>189.47499999999999</v>
+        <v>342.1</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="26">
         <f>'1'!Q27+'2'!Q27+'3'!Q27+'4'!Q27+'5'!Q27+'6'!Q27+'7'!Q27+'8'!Q27+'9'!Q27+'10'!Q27+'11'!Q27+'12'!Q27+'13'!Q27+'14'!Q27+'15'!Q27+'16'!Q27+'17'!Q27+'18'!Q27+'19'!Q27+'20'!Q27+'21'!Q27+'22'!Q27+'23'!Q27+'24'!Q27+'25'!Q27+'26'!Q27+'27'!Q27+'28'!Q27+'29'!Q27+'30'!Q27+'31'!Q27</f>
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>18041.525000000001</v>
+        <v>24293.9</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>65.454999999999998</v>
+        <v>118.17999999999999</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>45.454999999999998</v>
+        <v>-1.8200000000000074</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1">
@@ -54083,35 +54266,35 @@
       <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>99755</v>
+        <v>217255</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>760</v>
+        <v>1050</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>2060</v>
+        <v>2590</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>505</v>
+        <v>769</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -54119,15 +54302,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>134675</v>
+        <v>265135</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>312463</v>
+        <v>502919</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>3703.5625</v>
+        <v>7291.2125000000015</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -54135,19 +54318,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>1035</v>
+        <v>2531</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>307724.4375</v>
+        <v>493096.78750000009</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>1279.4125000000001</v>
+        <v>2518.7824999999998</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>244.41249999999997</v>
+        <v>-12.217500000000001</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1">
@@ -54158,35 +54341,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -56214,35 +56397,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'3'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'3'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'3'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'3'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'3'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'3'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'3'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'3'!L29</f>
@@ -57392,35 +57575,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -57764,35 +57947,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'4'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'4'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'4'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'4'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'4'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'4'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'4'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'4'!L29</f>
@@ -58945,35 +59128,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -59317,35 +59500,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'5'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'5'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'5'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'5'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'5'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'5'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'5'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'5'!L29</f>
@@ -60495,35 +60678,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -60867,35 +61050,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'6'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'6'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'6'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'6'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'6'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'6'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'6'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'6'!L29</f>
@@ -62045,35 +62228,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -62417,35 +62600,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'7'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'7'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'7'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'7'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'7'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'7'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'7'!L29</f>
@@ -63595,35 +63778,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -63967,35 +64150,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F4" s="2">
         <f>'8'!F29</f>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G4" s="2">
         <f>'8'!G29</f>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2">
         <f>'8'!H29</f>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="2">
         <f>'8'!I29</f>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J4" s="2">
         <f>'8'!J29</f>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2">
         <f>'8'!K29</f>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L4" s="2">
         <f>'8'!L29</f>
@@ -65145,35 +65328,35 @@
       <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>537222</v>
+        <v>894202</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1690</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3610</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>1810</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1463</v>
+        <v>1199</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>

--- a/March'21/01.03.2021/Daily Sales Info..xlsx
+++ b/March'21/01.03.2021/Daily Sales Info..xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="1"/>
@@ -41,7 +41,7 @@
     <sheet name="Total" sheetId="33" r:id="rId32"/>
     <sheet name="Sheet1" sheetId="34" r:id="rId33"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -201,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,6 +837,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13033,6 +13036,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -13111,6 +13119,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -13145,6 +13154,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13320,15 +13330,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q26" sqref="Q26"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -13341,7 +13351,7 @@
     <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -13365,7 +13375,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -13387,7 +13397,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>48</v>
       </c>
@@ -13411,7 +13421,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -13453,7 +13463,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -13477,7 +13487,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -13539,7 +13549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -13589,7 +13599,7 @@
         <v>37.116500000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -13643,7 +13653,7 @@
         <v>17.207999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -13699,7 +13709,7 @@
         <v>3.102499999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -13751,7 +13761,7 @@
         <v>16.1935</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -13811,7 +13821,7 @@
         <v>72.339500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -13867,7 +13877,7 @@
         <v>2.4555000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -13917,7 +13927,7 @@
         <v>4.7764999999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -13975,7 +13985,7 @@
         <v>71.623999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -14027,7 +14037,7 @@
         <v>83.632499999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -14081,7 +14091,7 @@
         <v>-44.862000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -14138,7 +14148,7 @@
         <v>-575</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -14192,7 +14202,7 @@
         <v>-57.938499999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>102</v>
       </c>
@@ -14242,7 +14252,7 @@
         <v>-49.17</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -14292,7 +14302,7 @@
         <v>-58.000500000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -14346,7 +14356,7 @@
         <v>38.1235</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -14394,7 +14404,7 @@
         <v>19.702999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -14450,7 +14460,7 @@
         <v>80.037499999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -14504,7 +14514,7 @@
         <v>3.3845000000000027</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -14554,7 +14564,7 @@
         <v>3.1139999999999972</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="18" customHeight="1">
+    <row r="26" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -14608,7 +14618,7 @@
         <v>-8.2379999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -14618,7 +14628,7 @@
       <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="70">
         <v>1440</v>
       </c>
       <c r="E27" s="38">
@@ -14672,7 +14682,7 @@
         <v>45.454999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.5" thickBot="1">
+    <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -14747,7 +14757,7 @@
         <v>244.41249999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -14798,7 +14808,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -15031,7 +15041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15039,7 +15049,7 @@
       <selection pane="bottomLeft" activeCell="G33" sqref="F33:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -15051,7 +15061,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -15075,7 +15085,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -15097,7 +15107,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
@@ -15121,7 +15131,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -15172,7 +15182,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -15196,7 +15206,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -15258,7 +15268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -15304,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -15350,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -15396,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -15442,7 +15452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -15488,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -15534,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -15580,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -15626,7 +15636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -15672,7 +15682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -15718,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -15764,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -15810,7 +15820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -15856,7 +15866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -15902,7 +15912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -15948,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -15994,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -16040,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -16086,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -16132,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -16178,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -16224,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -16299,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -16350,7 +16360,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -16581,7 +16591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16589,7 +16599,7 @@
       <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -16601,7 +16611,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -16625,7 +16635,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -16647,7 +16657,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -16671,7 +16681,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -16722,7 +16732,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -16746,7 +16756,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -16808,7 +16818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -16854,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -16900,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -16946,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -16992,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -17038,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -17084,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -17130,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -17176,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -17222,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -17268,7 +17278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -17314,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -17360,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -17406,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -17452,7 +17462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -17498,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -17544,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -17590,7 +17600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -17636,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -17682,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -17728,7 +17738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -17774,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -17849,7 +17859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -17900,7 +17910,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -18131,15 +18141,15 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -18151,7 +18161,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -18175,7 +18185,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -18197,7 +18207,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -18221,7 +18231,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -18272,7 +18282,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -18296,7 +18306,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -18358,7 +18368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -18404,7 +18414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -18450,7 +18460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -18496,7 +18506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -18542,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -18588,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -18634,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -18680,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -18726,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -18772,7 +18782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -18818,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -18864,7 +18874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -18910,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -18956,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -19002,7 +19012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -19048,7 +19058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -19094,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -19140,7 +19150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -19186,7 +19196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -19232,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -19278,7 +19288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -19324,7 +19334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -19399,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -19450,7 +19460,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -19681,7 +19691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19689,7 +19699,7 @@
       <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -19701,7 +19711,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -19725,7 +19735,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -19747,7 +19757,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
@@ -19771,7 +19781,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -19822,7 +19832,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -19846,7 +19856,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -19908,7 +19918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -19954,7 +19964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -20000,7 +20010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -20046,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -20092,7 +20102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -20138,7 +20148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -20184,7 +20194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -20230,7 +20240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -20276,7 +20286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -20322,7 +20332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -20368,7 +20378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -20414,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -20460,7 +20470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -20506,7 +20516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -20552,7 +20562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -20598,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -20644,7 +20654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -20690,7 +20700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -20736,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -20782,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -20828,7 +20838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -20874,7 +20884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -20949,7 +20959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -21000,7 +21010,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -21231,7 +21241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21239,7 +21249,7 @@
       <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -21251,7 +21261,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -21275,7 +21285,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -21297,7 +21307,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -21321,7 +21331,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -21372,7 +21382,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -21396,7 +21406,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -21458,7 +21468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -21504,7 +21514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -21550,7 +21560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -21596,7 +21606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -21642,7 +21652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -21688,7 +21698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -21734,7 +21744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -21780,7 +21790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -21826,7 +21836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -21872,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -21918,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -21964,7 +21974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -22010,7 +22020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -22056,7 +22066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -22102,7 +22112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -22148,7 +22158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -22194,7 +22204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -22240,7 +22250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -22286,7 +22296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -22332,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -22378,7 +22388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -22424,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -22499,7 +22509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -22550,7 +22560,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -22781,7 +22791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22789,7 +22799,7 @@
       <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -22801,7 +22811,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -22825,7 +22835,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -22847,7 +22857,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -22871,7 +22881,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -22922,7 +22932,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -22946,7 +22956,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -23008,7 +23018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -23054,7 +23064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -23100,7 +23110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -23146,7 +23156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -23192,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -23238,7 +23248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -23284,7 +23294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -23330,7 +23340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -23376,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -23422,7 +23432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -23468,7 +23478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -23514,7 +23524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -23560,7 +23570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -23606,7 +23616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -23652,7 +23662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -23698,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -23744,7 +23754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -23790,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -23836,7 +23846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -23882,7 +23892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -23928,7 +23938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -23974,7 +23984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -24049,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -24100,7 +24110,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -24331,7 +24341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24339,7 +24349,7 @@
       <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -24351,7 +24361,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -24375,7 +24385,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -24397,7 +24407,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
@@ -24421,7 +24431,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -24472,7 +24482,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -24496,7 +24506,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -24558,7 +24568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -24604,7 +24614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -24650,7 +24660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -24696,7 +24706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -24742,7 +24752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -24788,7 +24798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -24834,7 +24844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -24880,7 +24890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -24926,7 +24936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -24972,7 +24982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -25018,7 +25028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -25064,7 +25074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -25110,7 +25120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -25156,7 +25166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -25202,7 +25212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -25248,7 +25258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -25294,7 +25304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -25340,7 +25350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -25386,7 +25396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -25432,7 +25442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -25478,7 +25488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -25524,7 +25534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -25599,7 +25609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -25650,7 +25660,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -25881,7 +25891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25889,7 +25899,7 @@
       <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -25901,7 +25911,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -25925,7 +25935,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -25947,7 +25957,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -25971,7 +25981,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -26022,7 +26032,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -26046,7 +26056,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -26108,7 +26118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -26154,7 +26164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -26200,7 +26210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -26246,7 +26256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -26292,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -26338,7 +26348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -26384,7 +26394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -26430,7 +26440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -26476,7 +26486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -26522,7 +26532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -26568,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -26614,7 +26624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -26660,7 +26670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -26706,7 +26716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -26752,7 +26762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -26798,7 +26808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -26844,7 +26854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -26890,7 +26900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -26936,7 +26946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -26982,7 +26992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -27028,7 +27038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -27074,7 +27084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -27149,7 +27159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -27200,7 +27210,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -27431,7 +27441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27439,7 +27449,7 @@
       <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -27451,7 +27461,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -27475,7 +27485,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -27497,7 +27507,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -27521,7 +27531,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -27572,7 +27582,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -27596,7 +27606,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -27658,7 +27668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -27704,7 +27714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -27750,7 +27760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -27796,7 +27806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -27842,7 +27852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -27888,7 +27898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -27934,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -27980,7 +27990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -28026,7 +28036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -28072,7 +28082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -28118,7 +28128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -28164,7 +28174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -28210,7 +28220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -28256,7 +28266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -28302,7 +28312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -28348,7 +28358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -28394,7 +28404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -28440,7 +28450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -28486,7 +28496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -28532,7 +28542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -28578,7 +28588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -28624,7 +28634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -28699,7 +28709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -28750,7 +28760,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -28981,7 +28991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28989,7 +28999,7 @@
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -29001,7 +29011,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -29025,7 +29035,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -29047,7 +29057,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -29071,7 +29081,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -29122,7 +29132,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -29146,7 +29156,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -29208,7 +29218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -29254,7 +29264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -29300,7 +29310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -29346,7 +29356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -29392,7 +29402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -29438,7 +29448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -29484,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -29530,7 +29540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -29576,7 +29586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -29622,7 +29632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -29668,7 +29678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -29714,7 +29724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -29760,7 +29770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -29806,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -29852,7 +29862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -29898,7 +29908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -29944,7 +29954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -29990,7 +30000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -30036,7 +30046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -30082,7 +30092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -30128,7 +30138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -30174,7 +30184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -30249,7 +30259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -30300,7 +30310,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -30531,15 +30541,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -30551,7 +30561,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -30575,7 +30585,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -30597,7 +30607,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>49</v>
       </c>
@@ -30621,7 +30631,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -30672,7 +30682,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -30698,7 +30708,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" customHeight="1" thickBot="1">
+    <row r="6" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -30760,7 +30770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -30822,7 +30832,7 @@
         <v>5.2364999999999924</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -30874,7 +30884,7 @@
         <v>-39.831000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -30926,7 +30936,7 @@
         <v>0.76800000000000068</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -30978,7 +30988,7 @@
         <v>12.923000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -31034,7 +31044,7 @@
         <v>22.591999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -31094,7 +31104,7 @@
         <v>34.475999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -31144,7 +31154,7 @@
         <v>3.2785000000000011</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -31196,7 +31206,7 @@
         <v>-20.277999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -31250,7 +31260,7 @@
         <v>9.8700000000000045</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -31308,7 +31318,7 @@
         <v>7.8490000000000038</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -31366,7 +31376,7 @@
         <v>1.5405000000000015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -31424,7 +31434,7 @@
         <v>-51.692500000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -31474,7 +31484,7 @@
         <v>-70.084500000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -31530,7 +31540,7 @@
         <v>-64.8215</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -31588,7 +31598,7 @@
         <v>14.461999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -31642,7 +31652,7 @@
         <v>-11.950000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -31692,7 +31702,7 @@
         <v>2.5064999999999955</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -31748,7 +31758,7 @@
         <v>12.135999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -31798,7 +31808,7 @@
         <v>2.2620000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -31852,7 +31862,7 @@
         <v>-80.597499999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -31904,7 +31914,7 @@
         <v>-47.274999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -31979,7 +31989,7 @@
         <v>-256.63000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -32030,7 +32040,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -32261,7 +32271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32269,7 +32279,7 @@
       <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -32281,7 +32291,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -32305,7 +32315,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -32327,7 +32337,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -32351,7 +32361,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -32402,7 +32412,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -32426,7 +32436,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -32488,7 +32498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -32534,7 +32544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -32580,7 +32590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -32626,7 +32636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -32672,7 +32682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -32718,7 +32728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -32764,7 +32774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -32810,7 +32820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -32856,7 +32866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -32902,7 +32912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -32948,7 +32958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -32994,7 +33004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -33040,7 +33050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -33086,7 +33096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -33132,7 +33142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -33178,7 +33188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -33224,7 +33234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -33270,7 +33280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -33316,7 +33326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -33362,7 +33372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -33408,7 +33418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -33454,7 +33464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -33529,7 +33539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -33580,7 +33590,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -33811,15 +33821,15 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -33831,7 +33841,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -33855,7 +33865,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -33877,7 +33887,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -33901,7 +33911,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -33952,7 +33962,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -33976,7 +33986,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -34038,7 +34048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -34084,7 +34094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -34130,7 +34140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -34176,7 +34186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -34222,7 +34232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -34268,7 +34278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -34314,7 +34324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -34360,7 +34370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -34406,7 +34416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -34452,7 +34462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -34498,7 +34508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -34544,7 +34554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -34590,7 +34600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -34636,7 +34646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -34682,7 +34692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -34728,7 +34738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -34774,7 +34784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -34820,7 +34830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -34866,7 +34876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -34912,7 +34922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -34958,7 +34968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -35004,7 +35014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -35079,7 +35089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -35130,7 +35140,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -35361,7 +35371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35369,7 +35379,7 @@
       <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -35381,7 +35391,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -35405,7 +35415,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -35427,7 +35437,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
@@ -35451,7 +35461,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -35502,7 +35512,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -35526,7 +35536,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -35588,7 +35598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -35634,7 +35644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -35680,7 +35690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -35726,7 +35736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -35772,7 +35782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -35818,7 +35828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -35864,7 +35874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -35910,7 +35920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -35956,7 +35966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -36002,7 +36012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -36048,7 +36058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -36094,7 +36104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -36140,7 +36150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -36186,7 +36196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -36232,7 +36242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -36278,7 +36288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -36324,7 +36334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -36370,7 +36380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -36416,7 +36426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -36462,7 +36472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -36508,7 +36518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -36554,7 +36564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -36629,7 +36639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -36680,7 +36690,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -36911,7 +36921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36919,7 +36929,7 @@
       <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -36931,7 +36941,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -36955,7 +36965,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -36977,7 +36987,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -37001,7 +37011,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -37052,7 +37062,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -37076,7 +37086,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -37138,7 +37148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -37184,7 +37194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -37230,7 +37240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -37276,7 +37286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -37322,7 +37332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -37368,7 +37378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -37414,7 +37424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -37460,7 +37470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -37506,7 +37516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -37552,7 +37562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -37598,7 +37608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -37644,7 +37654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -37690,7 +37700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -37736,7 +37746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -37782,7 +37792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -37828,7 +37838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -37874,7 +37884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -37920,7 +37930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -37966,7 +37976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -38012,7 +38022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -38058,7 +38068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -38104,7 +38114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -38179,7 +38189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -38230,7 +38240,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -38461,7 +38471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38469,7 +38479,7 @@
       <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -38481,7 +38491,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -38505,7 +38515,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -38527,7 +38537,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
@@ -38551,7 +38561,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -38602,7 +38612,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -38626,7 +38636,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -38688,7 +38698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -38734,7 +38744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -38780,7 +38790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -38826,7 +38836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -38872,7 +38882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -38918,7 +38928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -38964,7 +38974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -39010,7 +39020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -39056,7 +39066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -39102,7 +39112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -39148,7 +39158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -39194,7 +39204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -39240,7 +39250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -39286,7 +39296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -39332,7 +39342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -39378,7 +39388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -39424,7 +39434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -39470,7 +39480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -39516,7 +39526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -39562,7 +39572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -39608,7 +39618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -39654,7 +39664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -39729,7 +39739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -39780,7 +39790,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -40011,7 +40021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40019,7 +40029,7 @@
       <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -40031,7 +40041,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -40055,7 +40065,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -40077,7 +40087,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
@@ -40101,7 +40111,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -40152,7 +40162,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -40176,7 +40186,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -40238,7 +40248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -40284,7 +40294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -40330,7 +40340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -40376,7 +40386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -40422,7 +40432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -40468,7 +40478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -40514,7 +40524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -40560,7 +40570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -40606,7 +40616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -40652,7 +40662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -40698,7 +40708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -40744,7 +40754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -40790,7 +40800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -40836,7 +40846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -40882,7 +40892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -40928,7 +40938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -40974,7 +40984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -41020,7 +41030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -41066,7 +41076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -41112,7 +41122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -41158,7 +41168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -41204,7 +41214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -41279,7 +41289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -41330,7 +41340,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -41561,7 +41571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41569,7 +41579,7 @@
       <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -41581,7 +41591,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -41605,7 +41615,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -41627,7 +41637,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -41651,7 +41661,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -41702,7 +41712,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -41726,7 +41736,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -41788,7 +41798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -41834,7 +41844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -41880,7 +41890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -41926,7 +41936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -41972,7 +41982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -42018,7 +42028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -42064,7 +42074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -42110,7 +42120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -42156,7 +42166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -42202,7 +42212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -42248,7 +42258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -42294,7 +42304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -42340,7 +42350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -42386,7 +42396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -42432,7 +42442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -42478,7 +42488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -42524,7 +42534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -42570,7 +42580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -42616,7 +42626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -42662,7 +42672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -42708,7 +42718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -42754,7 +42764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -42829,7 +42839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -42880,7 +42890,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -43111,7 +43121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43119,7 +43129,7 @@
       <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -43131,7 +43141,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -43155,7 +43165,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -43177,7 +43187,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -43201,7 +43211,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -43252,7 +43262,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -43276,7 +43286,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -43338,7 +43348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -43384,7 +43394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -43430,7 +43440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -43476,7 +43486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -43522,7 +43532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -43568,7 +43578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -43614,7 +43624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -43660,7 +43670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -43706,7 +43716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -43752,7 +43762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -43798,7 +43808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -43844,7 +43854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -43890,7 +43900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -43936,7 +43946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -43982,7 +43992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -44028,7 +44038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -44074,7 +44084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -44120,7 +44130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -44166,7 +44176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -44212,7 +44222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -44258,7 +44268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -44304,7 +44314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -44379,7 +44389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -44430,7 +44440,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -44661,7 +44671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44669,7 +44679,7 @@
       <selection pane="bottomLeft" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -44681,7 +44691,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -44705,7 +44715,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -44727,7 +44737,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -44751,7 +44761,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -44802,7 +44812,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -44826,7 +44836,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -44888,7 +44898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -44934,7 +44944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -44980,7 +44990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -45026,7 +45036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -45072,7 +45082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -45118,7 +45128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -45164,7 +45174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -45210,7 +45220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -45256,7 +45266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -45302,7 +45312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -45348,7 +45358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -45394,7 +45404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -45440,7 +45450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -45486,7 +45496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -45532,7 +45542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -45578,7 +45588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -45624,7 +45634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -45670,7 +45680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -45716,7 +45726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -45762,7 +45772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -45808,7 +45818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -45854,7 +45864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -45929,7 +45939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -45980,7 +45990,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -46211,7 +46221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46219,7 +46229,7 @@
       <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -46231,7 +46241,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -46255,7 +46265,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -46277,7 +46287,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -46301,7 +46311,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -46352,7 +46362,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -46376,7 +46386,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -46438,7 +46448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -46484,7 +46494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -46530,7 +46540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -46576,7 +46586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -46622,7 +46632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -46668,7 +46678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -46714,7 +46724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -46760,7 +46770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -46806,7 +46816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -46852,7 +46862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -46898,7 +46908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -46944,7 +46954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -46990,7 +47000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -47036,7 +47046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -47082,7 +47092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -47128,7 +47138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -47174,7 +47184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -47220,7 +47230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -47266,7 +47276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -47312,7 +47322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -47358,7 +47368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -47404,7 +47414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -47479,7 +47489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -47530,7 +47540,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -47761,7 +47771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47769,7 +47779,7 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -47781,7 +47791,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -47805,7 +47815,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -47827,7 +47837,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -47851,7 +47861,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -47902,7 +47912,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -47926,7 +47936,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -47988,7 +47998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -48034,7 +48044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -48080,7 +48090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -48126,7 +48136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -48172,7 +48182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -48218,7 +48228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -48264,7 +48274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -48310,7 +48320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -48356,7 +48366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -48402,7 +48412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -48448,7 +48458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -48494,7 +48504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -48540,7 +48550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -48586,7 +48596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -48632,7 +48642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -48678,7 +48688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -48724,7 +48734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -48770,7 +48780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -48816,7 +48826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -48862,7 +48872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -48908,7 +48918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -48954,7 +48964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -49029,7 +49039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -49080,7 +49090,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -49311,7 +49321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49319,7 +49329,7 @@
       <selection pane="bottomLeft" activeCell="K32" sqref="K32:L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -49331,7 +49341,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -49355,7 +49365,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -49377,7 +49387,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
@@ -49401,7 +49411,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -49452,7 +49462,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -49476,7 +49486,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -49538,7 +49548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -49584,7 +49594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -49630,7 +49640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -49676,7 +49686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -49722,7 +49732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -49768,7 +49778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -49814,7 +49824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -49860,7 +49870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -49906,7 +49916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -49952,7 +49962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -49998,7 +50008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -50044,7 +50054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -50090,7 +50100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -50136,7 +50146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -50182,7 +50192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -50228,7 +50238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -50274,7 +50284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -50320,7 +50330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -50366,7 +50376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -50412,7 +50422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -50458,7 +50468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -50504,7 +50514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -50579,7 +50589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -50630,7 +50640,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -50861,7 +50871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50869,7 +50879,7 @@
       <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -50881,7 +50891,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -50905,7 +50915,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -50927,7 +50937,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
@@ -50951,7 +50961,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -51002,7 +51012,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -51026,7 +51036,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -51088,7 +51098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -51134,7 +51144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -51180,7 +51190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -51226,7 +51236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -51272,7 +51282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -51318,7 +51328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -51364,7 +51374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -51410,7 +51420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -51456,7 +51466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -51502,7 +51512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -51548,7 +51558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -51594,7 +51604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -51640,7 +51650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -51686,7 +51696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -51732,7 +51742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -51778,7 +51788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -51824,7 +51834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -51870,7 +51880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -51916,7 +51926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -51962,7 +51972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -52008,7 +52018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -52054,7 +52064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -52129,7 +52139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -52180,7 +52190,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -52411,14 +52421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -52430,7 +52440,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -52454,7 +52464,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -52476,7 +52486,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
       <c r="B3" s="65"/>
       <c r="C3" s="66"/>
@@ -52498,7 +52508,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -52549,7 +52559,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -52600,7 +52610,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -52662,7 +52672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -52738,7 +52748,7 @@
         <v>42.352999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -52814,7 +52824,7 @@
         <v>-22.623000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -52890,7 +52900,7 @@
         <v>3.8704999999999927</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -52966,7 +52976,7 @@
         <v>29.116500000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -53042,7 +53052,7 @@
         <v>94.9315</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -53118,7 +53128,7 @@
         <v>36.9315</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -53194,7 +53204,7 @@
         <v>8.0549999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -53270,7 +53280,7 @@
         <v>51.346000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -53346,7 +53356,7 @@
         <v>93.502499999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -53422,7 +53432,7 @@
         <v>-37.013000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -53498,7 +53508,7 @@
         <v>-34.103999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -53574,7 +53584,7 @@
         <v>-109.631</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -53650,7 +53660,7 @@
         <v>-119.25450000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -53726,7 +53736,7 @@
         <v>-122.822</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -53802,7 +53812,7 @@
         <v>52.585499999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -53878,7 +53888,7 @@
         <v>7.7530000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -53954,7 +53964,7 @@
         <v>82.543999999999983</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -54030,7 +54040,7 @@
         <v>15.520499999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -54106,7 +54116,7 @@
         <v>5.3760000000000048</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -54182,7 +54192,7 @@
         <v>-88.835499999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.5" thickBot="1">
+    <row r="27" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -54258,7 +54268,7 @@
         <v>-1.8200000000000074</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -54333,7 +54343,7 @@
         <v>-12.217500000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -54384,7 +54394,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -54611,14 +54621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -54630,7 +54640,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -54654,7 +54664,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -54676,7 +54686,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>48</v>
       </c>
@@ -54700,7 +54710,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -54742,7 +54752,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -54766,7 +54776,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -54828,7 +54838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -54878,7 +54888,7 @@
         <v>37.116500000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -54932,7 +54942,7 @@
         <v>17.207999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -54988,7 +54998,7 @@
         <v>3.102499999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -55040,7 +55050,7 @@
         <v>16.1935</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -55096,7 +55106,7 @@
         <v>34.263500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -55146,7 +55156,7 @@
         <v>2.4555000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -55196,7 +55206,7 @@
         <v>4.7764999999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -55254,7 +55264,7 @@
         <v>71.623999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -55306,7 +55316,7 @@
         <v>83.632499999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -55360,7 +55370,7 @@
         <v>-44.862000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -55417,7 +55427,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -55471,7 +55481,7 @@
         <v>-57.938499999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>102</v>
       </c>
@@ -55521,7 +55531,7 @@
         <v>-49.17</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -55571,7 +55581,7 @@
         <v>-58.000500000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -55625,7 +55635,7 @@
         <v>38.1235</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -55673,7 +55683,7 @@
         <v>19.702999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -55729,7 +55739,7 @@
         <v>80.037499999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -55783,7 +55793,7 @@
         <v>3.3845000000000027</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -55829,7 +55839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -55883,7 +55893,7 @@
         <v>-8.2379999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="19.5" thickBot="1">
+    <row r="27" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -55947,7 +55957,7 @@
         <v>56.664999999999992</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.5" thickBot="1">
+    <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -56022,7 +56032,7 @@
         <v>214.43249999999992</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -56073,7 +56083,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -56299,15 +56309,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:L4"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -56319,7 +56329,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -56343,7 +56353,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -56365,7 +56375,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -56389,7 +56399,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -56440,7 +56450,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -56464,7 +56474,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -56526,7 +56536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -56572,7 +56582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -56618,7 +56628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -56664,7 +56674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -56710,7 +56720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -56756,7 +56766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -56802,7 +56812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -56848,7 +56858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -56894,7 +56904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -56940,7 +56950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -56986,7 +56996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -57032,7 +57042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -57078,7 +57088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -57124,7 +57134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -57170,7 +57180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -57216,7 +57226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -57262,7 +57272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -57308,7 +57318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -57354,7 +57364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -57400,7 +57410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -57446,7 +57456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -57492,7 +57502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -57567,7 +57577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -57618,7 +57628,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -57849,7 +57859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -57857,7 +57867,7 @@
       <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -57869,7 +57879,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -57893,7 +57903,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -57915,7 +57925,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -57939,7 +57949,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -57993,7 +58003,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -58017,7 +58027,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -58079,7 +58089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -58125,7 +58135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -58171,7 +58181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -58217,7 +58227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -58263,7 +58273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -58309,7 +58319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -58355,7 +58365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -58401,7 +58411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -58447,7 +58457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -58493,7 +58503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -58539,7 +58549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -58585,7 +58595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -58631,7 +58641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -58677,7 +58687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -58723,7 +58733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -58769,7 +58779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -58815,7 +58825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -58861,7 +58871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -58907,7 +58917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -58953,7 +58963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -58999,7 +59009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -59045,7 +59055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -59120,7 +59130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -59171,7 +59181,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -59402,7 +59412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59410,7 +59420,7 @@
       <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -59422,7 +59432,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -59446,7 +59456,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -59468,7 +59478,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
@@ -59492,7 +59502,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -59543,7 +59553,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -59567,7 +59577,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -59629,7 +59639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -59675,7 +59685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -59721,7 +59731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -59767,7 +59777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -59813,7 +59823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -59859,7 +59869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -59905,7 +59915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -59951,7 +59961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -59997,7 +60007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -60043,7 +60053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -60089,7 +60099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -60135,7 +60145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -60181,7 +60191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -60227,7 +60237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -60273,7 +60283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -60319,7 +60329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -60365,7 +60375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -60411,7 +60421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -60457,7 +60467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -60503,7 +60513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -60549,7 +60559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -60595,7 +60605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -60670,7 +60680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -60721,7 +60731,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -60952,7 +60962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -60960,7 +60970,7 @@
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -60972,7 +60982,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -60996,7 +61006,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -61018,7 +61028,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -61042,7 +61052,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -61093,7 +61103,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -61117,7 +61127,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -61179,7 +61189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -61225,7 +61235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -61271,7 +61281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -61317,7 +61327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -61363,7 +61373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -61409,7 +61419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -61455,7 +61465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -61501,7 +61511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -61547,7 +61557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -61593,7 +61603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -61639,7 +61649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -61685,7 +61695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -61731,7 +61741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -61777,7 +61787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -61823,7 +61833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -61869,7 +61879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -61915,7 +61925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -61961,7 +61971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -62007,7 +62017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -62053,7 +62063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -62099,7 +62109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -62145,7 +62155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -62220,7 +62230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -62271,7 +62281,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -62502,7 +62512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -62510,7 +62520,7 @@
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -62522,7 +62532,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -62546,7 +62556,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -62568,7 +62578,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
@@ -62592,7 +62602,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -62643,7 +62653,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -62667,7 +62677,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -62729,7 +62739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -62775,7 +62785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -62821,7 +62831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -62867,7 +62877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -62913,7 +62923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -62959,7 +62969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -63005,7 +63015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -63051,7 +63061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -63097,7 +63107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -63143,7 +63153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -63189,7 +63199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -63235,7 +63245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -63281,7 +63291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -63327,7 +63337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -63373,7 +63383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -63419,7 +63429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -63465,7 +63475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -63511,7 +63521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -63557,7 +63567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -63603,7 +63613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -63649,7 +63659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -63695,7 +63705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -63770,7 +63780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -63821,7 +63831,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -64052,7 +64062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -64060,7 +64070,7 @@
       <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -64072,7 +64082,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -64096,7 +64106,7 @@
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -64118,7 +64128,7 @@
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
@@ -64142,7 +64152,7 @@
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -64193,7 +64203,7 @@
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -64217,7 +64227,7 @@
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1">
+    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -64279,7 +64289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -64325,7 +64335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -64371,7 +64381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -64417,7 +64427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -64463,7 +64473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -64509,7 +64519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -64555,7 +64565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -64601,7 +64611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -64647,7 +64657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -64693,7 +64703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -64739,7 +64749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -64785,7 +64795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -64831,7 +64841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -64877,7 +64887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -64923,7 +64933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -64969,7 +64979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -65015,7 +65025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -65061,7 +65071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -65107,7 +65117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -65153,7 +65163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -65199,7 +65209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -65245,7 +65255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
@@ -65320,7 +65330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
@@ -65371,7 +65381,7 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
